--- a/WIP/Documents/Report 3/DDL_System Test Case_v1.0_EN.xlsx
+++ b/WIP/Documents/Report 3/DDL_System Test Case_v1.0_EN.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9302"/>
   <workbookPr/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="1" activeTab="4"/>
+    <workbookView xWindow="0" yWindow="0" windowWidth="15360" windowHeight="7755" tabRatio="840" firstSheet="6" activeTab="6"/>
   </bookViews>
   <sheets>
     <sheet name="Cover" sheetId="1" r:id="rId1"/>
@@ -638,7 +638,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1742" uniqueCount="1228">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="1690" uniqueCount="1186">
   <si>
     <t>TEST CASE</t>
   </si>
@@ -2277,9 +2277,6 @@
     <t>Test viewing Story tab in Edit Project Page</t>
   </si>
   <si>
-    <t>Test viewing Timeline tab in Edit Project Page</t>
-  </si>
-  <si>
     <t>Test viewing Q&amp;A tab in Edit Project Page</t>
   </si>
   <si>
@@ -2319,16 +2316,6 @@
 - Video Project button
 - Description Project textarea
 - Risks and challenges textarea</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed with the following list:
-- List timeline item with the follwing fields list:
-  + Title item text
-  + Image item
-  + Description textarea
-  + Date
-- Add new timeline button</t>
   </si>
   <si>
     <t>1. The Edit Project page is displayed
@@ -3139,215 +3126,6 @@
 4. Click discard button</t>
   </si>
   <si>
-    <t>Test Edit Project Page at Timeline tab when user enter a string smaller than 30 characters on  desciption update textarea</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user input only day or only month, or only year in date field</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click Save changes button to save new information.</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click Discard button to reset information is saved before</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click Add new update button</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab view date field</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Input:
-+ text "abc"</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Input date
-+ "31/mm/yyyy"
-+ "dd/10/yyyy"
-+ "dd/mm/2015"</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Click add new tab button</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Display:
-- "abc" is displayed in title project field
-- Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS24</t>
-    </r>
-    <r>
-      <rPr>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t xml:space="preserve">
-</t>
-    </r>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. "31/10/2015" is displayed on date field and same as in database when saved in database</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Date in database and date in date select is same  when saved in database</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Date today is displayed on date field and can select again.</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Item update form is deleted</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Popup update form is displayed</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Input:
-+ title timeline: "abc"</t>
-  </si>
-  <si>
-    <r>
-      <t xml:space="preserve">1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Display error message </t>
-    </r>
-    <r>
-      <rPr>
-        <b/>
-        <sz val="10"/>
-        <rFont val="Tahoma"/>
-        <family val="2"/>
-      </rPr>
-      <t>MS23</t>
-    </r>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user enter a string over max length (more than 60 characters) on timeline title textbox</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user enter a string smaller than 10 characters on title timeline field</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Input [maxlength+1] characters into timeline title textbox</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. First [maxlength] of input data is displayed in timeline title textbox</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Input 
-+ title timeline: ""</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user input timeline title is empty</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click upload button to upload a image in Image Timeline field</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Click upload button in image Timeline field
-4. Select image and click open button</t>
-  </si>
-  <si>
-    <t xml:space="preserve">1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. Browse form is displayed
-4. Display:
-- Image selected is displayed in image timeline field
-</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Click Delete button in a item timeline</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Click Edit button in a item timeline</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click Edit button in a item timeline</t>
-  </si>
-  <si>
-    <t>Test Edit Project Page at Timeline tab when user click Delete button in a item timeline</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Click  Add new timeline button</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-3. New timeline form is displayed</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Delete a item timeline 
-4. Click discard button</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-+ Have a item timeline in database
-3. Display:
-+ A item timeline is deleted
-4. Display:
-+ Have a item timeline in database</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Click Timeline tab
-3. Add new item timeline 
-4. Click Save changes button</t>
-  </si>
-  <si>
-    <t>1. The Edit Project page is displayed
-2. Content of Timeline tab is displayed
-+ Have a item timeline in database
-3. Display:
-+ A item timeline is added
-4. Display:
-+ A item timeline is added in database</t>
-  </si>
-  <si>
     <t>Test Edit Project Page when user edit with project is approved at Basic tab</t>
   </si>
   <si>
@@ -3469,9 +3247,6 @@
   </si>
   <si>
     <t>Comment Tab</t>
-  </si>
-  <si>
-    <t>Timeline Tab</t>
   </si>
   <si>
     <t>Back Project</t>
@@ -3652,18 +3427,6 @@
     <t>1. Project Detail Page is displayed
 2. Content Comment Tab is displayed.
 3. First [maxlength] of input data is displayed in Comment textarea</t>
-  </si>
-  <si>
-    <t>Test Project Detail view at Timeline Tab in 1366x768</t>
-  </si>
-  <si>
-    <t>1. Go to Project Detail Page
-2. Click on Timeline Tab</t>
-  </si>
-  <si>
-    <t>1. Project Detail Page is displayed
-2. Content Timeline Tab is displayed with the following list:
-- Timeline with date, content, image</t>
   </si>
   <si>
     <t>Test Project Detail view at Comment Tab when user input correct information on Comment textarea</t>
@@ -8866,6 +8629,27 @@
     <xf numFmtId="0" fontId="3" fillId="6" borderId="53" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment vertical="top" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="14" fillId="4" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" vertical="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="34" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="2" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
@@ -8899,18 +8683,6 @@
     <xf numFmtId="1" fontId="7" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="30" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="8" fillId="2" borderId="50" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" wrapText="1"/>
@@ -8948,29 +8720,20 @@
     <xf numFmtId="0" fontId="18" fillId="2" borderId="48" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="32" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="8" fillId="2" borderId="33" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="12" fillId="2" borderId="32" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="18" fillId="2" borderId="34" xfId="2" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
     <xf numFmtId="0" fontId="32" fillId="9" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="left" vertical="top" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="55" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="9" fillId="3" borderId="56" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="57" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="14" fillId="4" borderId="58" xfId="5" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="left" vertical="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="35" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="36" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="34" fillId="11" borderId="22" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
     </xf>
   </cellXfs>
   <cellStyles count="8">
@@ -9497,13 +9260,13 @@
     <row r="2" spans="1:7" s="5" customFormat="1" ht="75.75" customHeight="1">
       <c r="A2" s="3"/>
       <c r="B2" s="4"/>
-      <c r="C2" s="209" t="s">
+      <c r="C2" s="216" t="s">
         <v>0</v>
       </c>
-      <c r="D2" s="209"/>
-      <c r="E2" s="209"/>
-      <c r="F2" s="209"/>
-      <c r="G2" s="209"/>
+      <c r="D2" s="216"/>
+      <c r="E2" s="216"/>
+      <c r="F2" s="216"/>
+      <c r="G2" s="216"/>
     </row>
     <row r="3" spans="1:7">
       <c r="B3" s="6"/>
@@ -9514,11 +9277,11 @@
       <c r="B4" s="9" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="210" t="s">
+      <c r="C4" s="217" t="s">
         <v>68</v>
       </c>
-      <c r="D4" s="210"/>
-      <c r="E4" s="210"/>
+      <c r="D4" s="217"/>
+      <c r="E4" s="217"/>
       <c r="F4" s="9" t="s">
         <v>2</v>
       </c>
@@ -9530,11 +9293,11 @@
       <c r="B5" s="9" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="210" t="s">
+      <c r="C5" s="217" t="s">
         <v>71</v>
       </c>
-      <c r="D5" s="210"/>
-      <c r="E5" s="210"/>
+      <c r="D5" s="217"/>
+      <c r="E5" s="217"/>
       <c r="F5" s="9" t="s">
         <v>4</v>
       </c>
@@ -9543,15 +9306,15 @@
       </c>
     </row>
     <row r="6" spans="1:7" ht="15.75" customHeight="1">
-      <c r="B6" s="211" t="s">
+      <c r="B6" s="218" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="212" t="str">
+      <c r="C6" s="219" t="str">
         <f>C5&amp;"_"&amp;"System Test Case"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_System Test Case_v1.0</v>
       </c>
-      <c r="D6" s="212"/>
-      <c r="E6" s="212"/>
+      <c r="D6" s="219"/>
+      <c r="E6" s="219"/>
       <c r="F6" s="9" t="s">
         <v>6</v>
       </c>
@@ -9560,10 +9323,10 @@
       </c>
     </row>
     <row r="7" spans="1:7" ht="13.5" customHeight="1">
-      <c r="B7" s="211"/>
-      <c r="C7" s="212"/>
-      <c r="D7" s="212"/>
-      <c r="E7" s="212"/>
+      <c r="B7" s="218"/>
+      <c r="C7" s="219"/>
+      <c r="D7" s="219"/>
+      <c r="E7" s="219"/>
       <c r="F7" s="9" t="s">
         <v>7</v>
       </c>
@@ -9695,7 +9458,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW32"/>
   <sheetViews>
-    <sheetView topLeftCell="A19" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView topLeftCell="A10" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="E51" sqref="E51"/>
     </sheetView>
   </sheetViews>
@@ -9975,14 +9738,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>579</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>540</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -10233,14 +9996,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>709</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>667</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -10491,14 +10254,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -10756,11 +10519,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -11024,12 +10787,12 @@
         <f>COUNTIF(F12:G112,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A12:A112)*2</f>
         <v>40</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -12056,10 +11819,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -12312,7 +12075,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="154"/>
       <c r="B11" s="154" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -12569,13 +12332,13 @@
         <v>[Back Project-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="98"/>
@@ -12590,13 +12353,13 @@
         <v>[Back Project-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>688</v>
+        <v>646</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>689</v>
+        <v>647</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>690</v>
+        <v>648</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -12611,13 +12374,13 @@
         <v>[Back Project-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>1157</v>
+        <v>1115</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>1159</v>
+        <v>1117</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>1158</v>
+        <v>1116</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -12632,13 +12395,13 @@
         <v>[Back Project-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>1157</v>
+        <v>1115</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>1158</v>
+        <v>1116</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="98"/>
@@ -12653,13 +12416,13 @@
         <v>[Back Project-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>693</v>
+        <v>651</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>691</v>
+        <v>649</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>692</v>
+        <v>650</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="98"/>
@@ -12674,13 +12437,13 @@
         <v>[Back Project-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>694</v>
+        <v>652</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>695</v>
+        <v>653</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>1160</v>
+        <v>1118</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="98"/>
@@ -12695,13 +12458,13 @@
         <v>[Back Project-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>696</v>
+        <v>654</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>698</v>
+        <v>656</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>697</v>
+        <v>655</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="98"/>
@@ -12716,13 +12479,13 @@
         <v>[Back Project-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>699</v>
+        <v>657</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>700</v>
+        <v>658</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>701</v>
+        <v>659</v>
       </c>
       <c r="E19" s="109"/>
       <c r="F19" s="98"/>
@@ -12737,13 +12500,13 @@
         <v>[Back Project-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>1163</v>
+        <v>1121</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1161</v>
+        <v>1119</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>1162</v>
+        <v>1120</v>
       </c>
       <c r="E20" s="109"/>
       <c r="F20" s="98"/>
@@ -12755,7 +12518,7 @@
     <row r="21" spans="1:10" ht="14.25" customHeight="1">
       <c r="A21" s="167"/>
       <c r="B21" s="167" t="s">
-        <v>687</v>
+        <v>645</v>
       </c>
       <c r="C21" s="167"/>
       <c r="D21" s="167"/>
@@ -12772,13 +12535,13 @@
         <v>[Back Project-12]</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>702</v>
+        <v>660</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>704</v>
+        <v>662</v>
       </c>
       <c r="E22" s="168"/>
       <c r="F22" s="98"/>
@@ -12793,13 +12556,13 @@
         <v>[Back Project-13]</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>723</v>
+        <v>681</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>703</v>
+        <v>661</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>708</v>
+        <v>666</v>
       </c>
       <c r="E23" s="168"/>
       <c r="F23" s="98"/>
@@ -12814,13 +12577,13 @@
         <v>[Back Project-14]</v>
       </c>
       <c r="B24" s="111" t="s">
-        <v>729</v>
+        <v>687</v>
       </c>
       <c r="C24" s="111" t="s">
-        <v>716</v>
+        <v>674</v>
       </c>
       <c r="D24" s="111" t="s">
-        <v>710</v>
+        <v>668</v>
       </c>
       <c r="E24" s="168"/>
       <c r="F24" s="98"/>
@@ -12835,13 +12598,13 @@
         <v>[Back Project-15]</v>
       </c>
       <c r="B25" s="111" t="s">
-        <v>728</v>
+        <v>686</v>
       </c>
       <c r="C25" s="111" t="s">
-        <v>717</v>
+        <v>675</v>
       </c>
       <c r="D25" s="146" t="s">
-        <v>718</v>
+        <v>676</v>
       </c>
       <c r="E25" s="168"/>
       <c r="F25" s="98"/>
@@ -12856,13 +12619,13 @@
         <v>[Back Project-16]</v>
       </c>
       <c r="B26" s="111" t="s">
-        <v>727</v>
+        <v>685</v>
       </c>
       <c r="C26" s="111" t="s">
-        <v>715</v>
+        <v>673</v>
       </c>
       <c r="D26" s="111" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="98"/>
@@ -12877,13 +12640,13 @@
         <v>[Back Project-17]</v>
       </c>
       <c r="B27" s="111" t="s">
-        <v>726</v>
+        <v>684</v>
       </c>
       <c r="C27" s="111" t="s">
-        <v>714</v>
+        <v>672</v>
       </c>
       <c r="D27" s="165" t="s">
-        <v>711</v>
+        <v>669</v>
       </c>
       <c r="E27" s="168"/>
       <c r="F27" s="98"/>
@@ -12898,13 +12661,13 @@
         <v>[Back Project-18]</v>
       </c>
       <c r="B28" s="111" t="s">
-        <v>725</v>
+        <v>683</v>
       </c>
       <c r="C28" s="111" t="s">
-        <v>713</v>
+        <v>671</v>
       </c>
       <c r="D28" s="165" t="s">
-        <v>712</v>
+        <v>670</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="98"/>
@@ -12919,13 +12682,13 @@
         <v>[Back Project-19]</v>
       </c>
       <c r="B29" s="111" t="s">
-        <v>724</v>
+        <v>682</v>
       </c>
       <c r="C29" s="111" t="s">
-        <v>719</v>
+        <v>677</v>
       </c>
       <c r="D29" s="178" t="s">
-        <v>720</v>
+        <v>678</v>
       </c>
       <c r="E29" s="168"/>
       <c r="F29" s="98"/>
@@ -12940,13 +12703,13 @@
         <v>[Back Project-20]</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>731</v>
+        <v>689</v>
       </c>
       <c r="C30" s="177" t="s">
-        <v>732</v>
+        <v>690</v>
       </c>
       <c r="D30" s="179" t="s">
-        <v>733</v>
+        <v>691</v>
       </c>
       <c r="E30" s="168"/>
       <c r="F30" s="98"/>
@@ -12961,13 +12724,13 @@
         <v>[Back Project-21]</v>
       </c>
       <c r="B31" s="96" t="s">
-        <v>730</v>
+        <v>688</v>
       </c>
       <c r="C31" s="96" t="s">
-        <v>721</v>
+        <v>679</v>
       </c>
       <c r="D31" s="164" t="s">
-        <v>722</v>
+        <v>680</v>
       </c>
       <c r="E31" s="168"/>
       <c r="F31" s="98"/>
@@ -12982,13 +12745,13 @@
         <v>[Back Project-22]</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>734</v>
+        <v>692</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>735</v>
+        <v>693</v>
       </c>
       <c r="D32" s="175" t="s">
-        <v>736</v>
+        <v>694</v>
       </c>
       <c r="E32" s="168"/>
       <c r="F32" s="98"/>
@@ -13023,7 +12786,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:JB46"/>
   <sheetViews>
-    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+    <sheetView topLeftCell="A19" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
       <selection activeCell="D56" sqref="D56"/>
     </sheetView>
   </sheetViews>
@@ -13308,14 +13071,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>737</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>695</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="J2" s="78" t="s">
         <v>22</v>
@@ -13570,14 +13333,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>738</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>696</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="J3" s="78" t="s">
         <v>24</v>
@@ -13832,14 +13595,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="J4" s="80"/>
       <c r="K4" s="78"/>
@@ -14101,11 +13864,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="J5" s="78" t="s">
         <v>29</v>
@@ -14373,12 +14136,12 @@
         <f>COUNTIF(F11:G107,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A11:A107)*2</f>
         <v>62</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="J6" s="78" t="s">
         <v>27</v>
@@ -15424,15 +15187,15 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
       </c>
-      <c r="I10" s="239" t="s">
+      <c r="I10" s="210" t="s">
         <v>36</v>
       </c>
       <c r="J10" s="78"/>
@@ -15684,7 +15447,7 @@
     <row r="11" spans="1:262" ht="14.25" customHeight="1">
       <c r="A11" s="154"/>
       <c r="B11" s="154" t="s">
-        <v>739</v>
+        <v>697</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -15692,7 +15455,7 @@
       <c r="F11" s="155"/>
       <c r="G11" s="155"/>
       <c r="H11" s="155"/>
-      <c r="I11" s="240"/>
+      <c r="I11" s="211"/>
       <c r="O11" s="90"/>
     </row>
     <row r="12" spans="1:262" ht="14.25" customHeight="1">
@@ -15701,13 +15464,13 @@
         <v>[Project management-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>742</v>
+        <v>700</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>745</v>
+        <v>703</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="98"/>
@@ -15722,13 +15485,13 @@
         <v>[Project management-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>744</v>
+        <v>702</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>743</v>
+        <v>701</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -15743,13 +15506,13 @@
         <v>[Project management-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>764</v>
+        <v>722</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>789</v>
+        <v>747</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>746</v>
+        <v>704</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -15764,13 +15527,13 @@
         <v>[Project management-5]</v>
       </c>
       <c r="B15" s="98" t="s">
+        <v>706</v>
+      </c>
+      <c r="C15" s="98" t="s">
         <v>748</v>
       </c>
-      <c r="C15" s="98" t="s">
-        <v>790</v>
-      </c>
       <c r="D15" s="98" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="98"/>
@@ -15785,13 +15548,13 @@
         <v>[Project management-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>747</v>
+        <v>705</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>791</v>
+        <v>749</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>751</v>
+        <v>709</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="98"/>
@@ -15806,13 +15569,13 @@
         <v>[Project management-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>749</v>
+        <v>707</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>792</v>
+        <v>750</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>753</v>
+        <v>711</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="98"/>
@@ -15827,13 +15590,13 @@
         <v>[Project management-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>790</v>
+        <v>748</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>752</v>
+        <v>710</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="98"/>
@@ -15848,13 +15611,13 @@
         <v>[Project management-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>770</v>
+        <v>728</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>793</v>
+        <v>751</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>774</v>
+        <v>732</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="98"/>
@@ -15869,13 +15632,13 @@
         <v>[Project management-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>771</v>
+        <v>729</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>794</v>
+        <v>752</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>773</v>
+        <v>731</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="98"/>
@@ -15890,13 +15653,13 @@
         <v>[Project management-11]</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>772</v>
+        <v>730</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>795</v>
+        <v>753</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>775</v>
+        <v>733</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="98"/>
@@ -15911,13 +15674,13 @@
         <v>[Project management-12]</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>756</v>
+        <v>714</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>796</v>
+        <v>754</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>755</v>
+        <v>713</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="98"/>
@@ -15932,13 +15695,13 @@
         <v>[Project management-13]</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>758</v>
+        <v>716</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>797</v>
+        <v>755</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>757</v>
+        <v>715</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="98"/>
@@ -15953,13 +15716,13 @@
         <v>[Project management-14]</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>759</v>
+        <v>717</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>798</v>
+        <v>756</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>760</v>
+        <v>718</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="98"/>
@@ -15974,13 +15737,13 @@
         <v>[Project management-15]</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>750</v>
+        <v>708</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>799</v>
+        <v>757</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>754</v>
+        <v>712</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="98"/>
@@ -15995,13 +15758,13 @@
         <v>[Project management-16]</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>776</v>
+        <v>734</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>800</v>
+        <v>758</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>1201</v>
+        <v>1159</v>
       </c>
       <c r="E26" s="104"/>
       <c r="F26" s="98"/>
@@ -16016,13 +15779,13 @@
         <v>[Project management-17]</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>777</v>
+        <v>735</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>801</v>
+        <v>759</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>1202</v>
+        <v>1160</v>
       </c>
       <c r="E27" s="104"/>
       <c r="F27" s="98"/>
@@ -16037,13 +15800,13 @@
         <v>[Project management-18]</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>1211</v>
+        <v>1169</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>1165</v>
+        <v>1123</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>1210</v>
+        <v>1168</v>
       </c>
       <c r="E28" s="104"/>
       <c r="F28" s="98"/>
@@ -16055,7 +15818,7 @@
     <row r="29" spans="1:254" ht="14.25" customHeight="1">
       <c r="A29" s="167"/>
       <c r="B29" s="167" t="s">
-        <v>740</v>
+        <v>698</v>
       </c>
       <c r="C29" s="155"/>
       <c r="D29" s="155"/>
@@ -16063,7 +15826,7 @@
       <c r="F29" s="204"/>
       <c r="G29" s="204"/>
       <c r="H29" s="204"/>
-      <c r="I29" s="241"/>
+      <c r="I29" s="212"/>
       <c r="O29" s="90"/>
     </row>
     <row r="30" spans="1:254" s="92" customFormat="1" ht="14.25" customHeight="1">
@@ -16072,13 +15835,13 @@
         <v>[Project management-20]</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>761</v>
+        <v>719</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="D30" s="98" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="E30" s="168"/>
       <c r="F30" s="98"/>
@@ -16337,13 +16100,13 @@
         <v>[Project management-21]</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>762</v>
+        <v>720</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="D31" s="98" t="s">
-        <v>763</v>
+        <v>721</v>
       </c>
       <c r="E31" s="168"/>
       <c r="F31" s="98"/>
@@ -16602,13 +16365,13 @@
         <v>[Project management-22]</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>765</v>
+        <v>723</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>802</v>
+        <v>760</v>
       </c>
       <c r="D32" s="98" t="s">
-        <v>766</v>
+        <v>724</v>
       </c>
       <c r="E32" s="168"/>
       <c r="F32" s="98"/>
@@ -16867,13 +16630,13 @@
         <v>[Project management-23]</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>1204</v>
+        <v>1162</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>803</v>
+        <v>761</v>
       </c>
       <c r="D33" s="98" t="s">
-        <v>767</v>
+        <v>725</v>
       </c>
       <c r="E33" s="168"/>
       <c r="F33" s="98"/>
@@ -17132,13 +16895,13 @@
         <v>[Project management-24]</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>1205</v>
+        <v>1163</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>804</v>
+        <v>762</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>1203</v>
+        <v>1161</v>
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="98"/>
@@ -17397,13 +17160,13 @@
         <v>[Project management-25]</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>1206</v>
+        <v>1164</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>768</v>
+        <v>726</v>
       </c>
       <c r="D35" s="98" t="s">
-        <v>769</v>
+        <v>727</v>
       </c>
       <c r="E35" s="168"/>
       <c r="F35" s="98"/>
@@ -17662,13 +17425,13 @@
         <v>[Project management-26]</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>1207</v>
+        <v>1165</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>1208</v>
+        <v>1166</v>
       </c>
       <c r="D36" s="98" t="s">
-        <v>1209</v>
+        <v>1167</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="98"/>
@@ -17924,7 +17687,7 @@
     <row r="37" spans="1:254" ht="14.25" customHeight="1">
       <c r="A37" s="167"/>
       <c r="B37" s="167" t="s">
-        <v>741</v>
+        <v>699</v>
       </c>
       <c r="C37" s="167"/>
       <c r="D37" s="167"/>
@@ -17932,7 +17695,7 @@
       <c r="F37" s="167"/>
       <c r="G37" s="167"/>
       <c r="H37" s="167"/>
-      <c r="I37" s="241"/>
+      <c r="I37" s="212"/>
       <c r="O37" s="90"/>
     </row>
     <row r="38" spans="1:254" ht="14.25" customHeight="1">
@@ -17941,13 +17704,13 @@
         <v>[Project management-28]</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>778</v>
+        <v>736</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="98"/>
@@ -17962,13 +17725,13 @@
         <v>[Project management-29]</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>780</v>
+        <v>738</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="D39" s="98" t="s">
-        <v>779</v>
+        <v>737</v>
       </c>
       <c r="E39" s="168"/>
       <c r="F39" s="98"/>
@@ -17983,13 +17746,13 @@
         <v>[Project management-30]</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>783</v>
+        <v>741</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>805</v>
+        <v>763</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>781</v>
+        <v>739</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="98"/>
@@ -18004,13 +17767,13 @@
         <v>[Project management-31]</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>784</v>
+        <v>742</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>806</v>
+        <v>764</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>782</v>
+        <v>740</v>
       </c>
       <c r="E41" s="168"/>
       <c r="F41" s="98"/>
@@ -18025,13 +17788,13 @@
         <v>[Project management-32]</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>785</v>
+        <v>743</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>807</v>
+        <v>765</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>786</v>
+        <v>744</v>
       </c>
       <c r="E42" s="168"/>
       <c r="F42" s="98"/>
@@ -18046,13 +17809,13 @@
         <v>[Project management-33]</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>1213</v>
+        <v>1171</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>787</v>
+        <v>745</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>788</v>
+        <v>746</v>
       </c>
       <c r="E43" s="168"/>
       <c r="F43" s="98"/>
@@ -18067,13 +17830,13 @@
         <v>[Project management-34]</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>1212</v>
+        <v>1170</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1214</v>
+        <v>1172</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>1209</v>
+        <v>1167</v>
       </c>
       <c r="E44" s="104"/>
       <c r="F44" s="98"/>
@@ -18398,14 +18161,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>808</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>766</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -18656,14 +18419,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>809</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>767</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -18914,14 +18677,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -19179,11 +18942,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -19447,12 +19210,12 @@
         <f>COUNTIF(F11:G84,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A11:A84)*2</f>
         <v>18</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -20479,10 +20242,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -20735,7 +20498,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="154"/>
       <c r="B11" s="154" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -20752,13 +20515,13 @@
         <v>[Discover-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>810</v>
+        <v>768</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="98"/>
@@ -20773,13 +20536,13 @@
         <v>[Discover-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>812</v>
+        <v>770</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>859</v>
+        <v>817</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>811</v>
+        <v>769</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -20794,13 +20557,13 @@
         <v>[Discover-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>813</v>
+        <v>771</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>860</v>
+        <v>818</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>814</v>
+        <v>772</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -20815,13 +20578,13 @@
         <v>[Discover-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>815</v>
+        <v>773</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>861</v>
+        <v>819</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>816</v>
+        <v>774</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="98"/>
@@ -20836,13 +20599,13 @@
         <v>[Discover-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>821</v>
+        <v>779</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>862</v>
+        <v>820</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>822</v>
+        <v>780</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="98"/>
@@ -20857,13 +20620,13 @@
         <v>[Discover-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>818</v>
+        <v>776</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>863</v>
+        <v>821</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>819</v>
+        <v>777</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="98"/>
@@ -20878,13 +20641,13 @@
         <v>[Discover-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>817</v>
+        <v>775</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>864</v>
+        <v>822</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>820</v>
+        <v>778</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="98"/>
@@ -20899,13 +20662,13 @@
         <v>[Discover-9]</v>
       </c>
       <c r="B19" s="98" t="s">
+        <v>781</v>
+      </c>
+      <c r="C19" s="98" t="s">
         <v>823</v>
       </c>
-      <c r="C19" s="98" t="s">
-        <v>865</v>
-      </c>
       <c r="D19" s="98" t="s">
-        <v>825</v>
+        <v>783</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="98"/>
@@ -20920,13 +20683,13 @@
         <v>[Discover-10]</v>
       </c>
       <c r="B20" s="98" t="s">
+        <v>782</v>
+      </c>
+      <c r="C20" s="98" t="s">
         <v>824</v>
       </c>
-      <c r="C20" s="98" t="s">
-        <v>866</v>
-      </c>
       <c r="D20" s="98" t="s">
-        <v>826</v>
+        <v>784</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="98"/>
@@ -21242,14 +21005,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>827</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>785</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -21500,14 +21263,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>829</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>787</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -21758,14 +21521,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -22023,11 +21786,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -22291,12 +22054,12 @@
         <f>COUNTIF(F11:G87,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A11:A87)*2</f>
         <v>24</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -23323,10 +23086,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -23577,7 +23340,7 @@
     <row r="11" spans="1:257">
       <c r="A11" s="154"/>
       <c r="B11" s="154" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -23594,13 +23357,13 @@
         <v>[Statistic-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>830</v>
+        <v>788</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="98"/>
@@ -23615,13 +23378,13 @@
         <v>[Statistic-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>831</v>
+        <v>789</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>858</v>
+        <v>816</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>833</v>
+        <v>791</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -23636,13 +23399,13 @@
         <v>[Statistic-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>832</v>
+        <v>790</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>834</v>
+        <v>792</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>835</v>
+        <v>793</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -23657,13 +23420,13 @@
         <v>[Statistic-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>1154</v>
+        <v>1112</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>1148</v>
+        <v>1106</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>1149</v>
+        <v>1107</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="98"/>
@@ -23678,13 +23441,13 @@
         <v>[Statistic-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>1155</v>
+        <v>1113</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>1150</v>
+        <v>1108</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>1153</v>
+        <v>1111</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="98"/>
@@ -23699,13 +23462,13 @@
         <v>[Statistic-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>1156</v>
+        <v>1114</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>1151</v>
+        <v>1109</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>1152</v>
+        <v>1110</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="98"/>
@@ -23720,13 +23483,13 @@
         <v>[Statistic-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>836</v>
+        <v>794</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>840</v>
+        <v>798</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>841</v>
+        <v>799</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="98"/>
@@ -23741,13 +23504,13 @@
         <v>[Statistic-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>837</v>
+        <v>795</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>838</v>
+        <v>796</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>839</v>
+        <v>797</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="98"/>
@@ -23762,13 +23525,13 @@
         <v>[Statistic-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>842</v>
+        <v>800</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>843</v>
+        <v>801</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>847</v>
+        <v>805</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="98"/>
@@ -23783,13 +23546,13 @@
         <v>[Statistic-11]</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>844</v>
+        <v>802</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>845</v>
+        <v>803</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>846</v>
+        <v>804</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="98"/>
@@ -23804,13 +23567,13 @@
         <v>[Statistic-12]</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>848</v>
+        <v>806</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>849</v>
+        <v>807</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>850</v>
+        <v>808</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="98"/>
@@ -23825,13 +23588,13 @@
         <v>[Statistic-13]</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>851</v>
+        <v>809</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>852</v>
+        <v>810</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>853</v>
+        <v>811</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="98"/>
@@ -24149,14 +23912,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>828</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>786</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -24407,14 +24170,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>854</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>812</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -24665,14 +24428,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -24930,11 +24693,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -25198,12 +24961,12 @@
         <f>COUNTIF(F11:G101,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A11:A101)*2</f>
         <v>52</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -26230,10 +25993,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -26486,7 +26249,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="154"/>
       <c r="B11" s="154" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="C11" s="155"/>
       <c r="D11" s="155"/>
@@ -26503,13 +26266,13 @@
         <v>[Message-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>856</v>
+        <v>814</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>867</v>
+        <v>825</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E12" s="104"/>
       <c r="F12" s="98"/>
@@ -26524,13 +26287,13 @@
         <v>[Message-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>857</v>
+        <v>815</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>870</v>
+        <v>828</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>868</v>
+        <v>826</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -26545,13 +26308,13 @@
         <v>[Message-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>871</v>
+        <v>829</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>873</v>
+        <v>831</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -26566,13 +26329,13 @@
         <v>[Message-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="E15" s="104"/>
       <c r="F15" s="98"/>
@@ -26587,13 +26350,13 @@
         <v>[Message-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>879</v>
+        <v>837</v>
       </c>
       <c r="E16" s="104"/>
       <c r="F16" s="98"/>
@@ -26608,13 +26371,13 @@
         <v>[Message-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>880</v>
+        <v>838</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>881</v>
+        <v>839</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>882</v>
+        <v>840</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="98"/>
@@ -26629,13 +26392,13 @@
         <v>[Message-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="E18" s="104"/>
       <c r="F18" s="98"/>
@@ -26650,13 +26413,13 @@
         <v>[Message-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>884</v>
+        <v>842</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>885</v>
+        <v>843</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="98"/>
@@ -26671,13 +26434,13 @@
         <v>[Message-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>1215</v>
+        <v>1173</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="E20" s="104"/>
       <c r="F20" s="98"/>
@@ -26692,13 +26455,13 @@
         <v>[Message-11]</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>1216</v>
+        <v>1174</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>1217</v>
+        <v>1175</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>1218</v>
+        <v>1176</v>
       </c>
       <c r="E21" s="104"/>
       <c r="F21" s="98"/>
@@ -26713,13 +26476,13 @@
         <v>[Message-12]</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>1219</v>
+        <v>1177</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>1221</v>
+        <v>1179</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>1220</v>
+        <v>1178</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="98"/>
@@ -26734,13 +26497,13 @@
         <v>[Message-13]</v>
       </c>
       <c r="B23" s="98" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="C23" s="98" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="D23" s="98" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="E23" s="104"/>
       <c r="F23" s="98"/>
@@ -26755,13 +26518,13 @@
         <v>[Message-14]</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="E24" s="104"/>
       <c r="F24" s="98"/>
@@ -26776,16 +26539,16 @@
         <v>[Message-15]</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>1223</v>
+        <v>1181</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1224</v>
+        <v>1182</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>1225</v>
+        <v>1183</v>
       </c>
       <c r="E25" s="97" t="s">
-        <v>1164</v>
+        <v>1122</v>
       </c>
       <c r="F25" s="98"/>
       <c r="G25" s="98"/>
@@ -26799,16 +26562,16 @@
         <v>[Message-16]</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>895</v>
+        <v>853</v>
       </c>
       <c r="E26" s="97" t="s">
-        <v>1164</v>
+        <v>1122</v>
       </c>
       <c r="F26" s="98"/>
       <c r="G26" s="98"/>
@@ -26822,16 +26585,16 @@
         <v>[Message-17]</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="E27" s="97" t="s">
-        <v>1164</v>
+        <v>1122</v>
       </c>
       <c r="F27" s="98"/>
       <c r="G27" s="98"/>
@@ -26845,13 +26608,13 @@
         <v>[Message-18]</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>899</v>
+        <v>857</v>
       </c>
       <c r="C28" s="98" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="E28" s="97"/>
       <c r="F28" s="98"/>
@@ -26866,13 +26629,13 @@
         <v>[Message-19]</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="D29" s="98" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
       <c r="E29" s="104"/>
       <c r="F29" s="98"/>
@@ -26887,13 +26650,13 @@
         <v>[Message-20]</v>
       </c>
       <c r="B30" s="98" t="s">
-        <v>905</v>
+        <v>863</v>
       </c>
       <c r="C30" s="98" t="s">
-        <v>906</v>
+        <v>864</v>
       </c>
       <c r="D30" s="98" t="s">
-        <v>908</v>
+        <v>866</v>
       </c>
       <c r="E30" s="104"/>
       <c r="F30" s="98"/>
@@ -26905,7 +26668,7 @@
     <row r="31" spans="1:10" ht="14.25" customHeight="1">
       <c r="A31" s="167"/>
       <c r="B31" s="167" t="s">
-        <v>855</v>
+        <v>813</v>
       </c>
       <c r="C31" s="167"/>
       <c r="D31" s="167"/>
@@ -26922,13 +26685,13 @@
         <v>[Message-22]</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>909</v>
+        <v>867</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>911</v>
+        <v>869</v>
       </c>
       <c r="D32" s="98" t="s">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="E32" s="104"/>
       <c r="F32" s="98"/>
@@ -26943,13 +26706,13 @@
         <v>[Message-23]</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>910</v>
+        <v>868</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>911</v>
+        <v>869</v>
       </c>
       <c r="D33" s="98" t="s">
-        <v>912</v>
+        <v>870</v>
       </c>
       <c r="E33" s="104"/>
       <c r="F33" s="98"/>
@@ -26964,13 +26727,13 @@
         <v>[Message-24]</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="D34" s="98" t="s">
-        <v>915</v>
+        <v>873</v>
       </c>
       <c r="E34" s="104"/>
       <c r="F34" s="98"/>
@@ -26985,13 +26748,13 @@
         <v>[Message-25]</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>919</v>
+        <v>877</v>
       </c>
       <c r="D35" s="98" t="s">
-        <v>1222</v>
+        <v>1180</v>
       </c>
       <c r="E35" s="104"/>
       <c r="F35" s="98"/>
@@ -27006,13 +26769,13 @@
         <v>[Message-26]</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
       <c r="D36" s="98" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="E36" s="104"/>
       <c r="F36" s="98"/>
@@ -27027,13 +26790,13 @@
         <v>[Message-27]</v>
       </c>
       <c r="B37" s="98" t="s">
-        <v>899</v>
+        <v>857</v>
       </c>
       <c r="C37" s="98" t="s">
-        <v>901</v>
+        <v>859</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>900</v>
+        <v>858</v>
       </c>
       <c r="E37" s="104"/>
       <c r="F37" s="98"/>
@@ -27048,13 +26811,13 @@
         <v>[Message-28]</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>902</v>
+        <v>860</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>916</v>
+        <v>874</v>
       </c>
       <c r="E38" s="104"/>
       <c r="F38" s="98"/>
@@ -27093,7 +26856,7 @@
   <dimension ref="A1:IW82"/>
   <sheetViews>
     <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="G19" sqref="G19"/>
+      <selection activeCell="F36" sqref="F36"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.25" customHeight="1"/>
@@ -27372,14 +27135,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>920</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>878</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="J2" s="78" t="s">
         <v>24</v>
@@ -27625,14 +27388,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>951</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>909</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="J3" s="80"/>
       <c r="O3" s="78"/>
@@ -27876,14 +27639,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="J4" s="78" t="s">
         <v>29</v>
@@ -28138,11 +27901,11 @@
       <c r="D5" s="205" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="J5" s="78" t="s">
         <v>27</v>
@@ -28401,12 +28164,12 @@
         <f>COUNTIF(F11:G94,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A11:A94)*2</f>
         <v>122</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="134"/>
       <c r="J6" s="90"/>
@@ -29411,10 +29174,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="192" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="192" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="192" t="s">
         <v>35</v>
@@ -29662,16 +29425,16 @@
     </row>
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="181"/>
-      <c r="B11" s="237" t="s">
+      <c r="B11" s="244" t="s">
         <v>95</v>
       </c>
-      <c r="C11" s="237"/>
-      <c r="D11" s="237"/>
-      <c r="E11" s="237"/>
-      <c r="F11" s="237"/>
-      <c r="G11" s="237"/>
-      <c r="H11" s="237"/>
-      <c r="I11" s="237"/>
+      <c r="C11" s="244"/>
+      <c r="D11" s="244"/>
+      <c r="E11" s="244"/>
+      <c r="F11" s="244"/>
+      <c r="G11" s="244"/>
+      <c r="H11" s="244"/>
+      <c r="I11" s="244"/>
       <c r="J11" s="78"/>
       <c r="K11" s="78"/>
       <c r="L11" s="78"/>
@@ -29918,13 +29681,13 @@
         <v>[Admin Module-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>921</v>
+        <v>879</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>922</v>
+        <v>880</v>
       </c>
       <c r="D12" s="98" t="s">
-        <v>1167</v>
+        <v>1125</v>
       </c>
       <c r="E12" s="189"/>
       <c r="F12" s="98"/>
@@ -29939,16 +29702,16 @@
         <v>[Admin Module-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>923</v>
+        <v>881</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>924</v>
+        <v>882</v>
       </c>
       <c r="D13" s="98" t="s">
-        <v>925</v>
+        <v>883</v>
       </c>
       <c r="E13" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F13" s="98"/>
       <c r="G13" s="98"/>
@@ -29962,16 +29725,16 @@
         <v>[Admin Module-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>927</v>
+        <v>885</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>928</v>
+        <v>886</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>929</v>
+        <v>887</v>
       </c>
       <c r="E14" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F14" s="98"/>
       <c r="G14" s="98"/>
@@ -29985,16 +29748,16 @@
         <v>[Admin Module-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>930</v>
+        <v>888</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>931</v>
+        <v>889</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>932</v>
+        <v>890</v>
       </c>
       <c r="E15" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F15" s="98"/>
       <c r="G15" s="98"/>
@@ -30011,13 +29774,13 @@
         <v>104</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>949</v>
+        <v>907</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>950</v>
+        <v>908</v>
       </c>
       <c r="E16" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F16" s="98"/>
       <c r="G16" s="98"/>
@@ -30031,16 +29794,16 @@
         <v>[Admin Module-7]</v>
       </c>
       <c r="B17" s="98" t="s">
-        <v>933</v>
+        <v>891</v>
       </c>
       <c r="C17" s="98" t="s">
-        <v>934</v>
+        <v>892</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>935</v>
+        <v>893</v>
       </c>
       <c r="E17" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F17" s="98"/>
       <c r="G17" s="98"/>
@@ -30054,16 +29817,16 @@
         <v>[Admin Module-8]</v>
       </c>
       <c r="B18" s="98" t="s">
-        <v>936</v>
+        <v>894</v>
       </c>
       <c r="C18" s="98" t="s">
-        <v>937</v>
+        <v>895</v>
       </c>
       <c r="D18" s="98" t="s">
-        <v>938</v>
+        <v>896</v>
       </c>
       <c r="E18" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F18" s="98"/>
       <c r="G18" s="98"/>
@@ -30077,16 +29840,16 @@
         <v>[Admin Module-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>939</v>
+        <v>897</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>940</v>
+        <v>898</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>941</v>
+        <v>899</v>
       </c>
       <c r="E19" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F19" s="98"/>
       <c r="G19" s="98"/>
@@ -30100,16 +29863,16 @@
         <v>[Admin Module-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>942</v>
+        <v>900</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>943</v>
+        <v>901</v>
       </c>
       <c r="D20" s="98" t="s">
-        <v>944</v>
+        <v>902</v>
       </c>
       <c r="E20" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F20" s="98"/>
       <c r="G20" s="98"/>
@@ -30123,16 +29886,16 @@
         <v>[Admin Module-11]</v>
       </c>
       <c r="B21" s="98" t="s">
-        <v>945</v>
+        <v>903</v>
       </c>
       <c r="C21" s="98" t="s">
-        <v>946</v>
+        <v>904</v>
       </c>
       <c r="D21" s="98" t="s">
-        <v>944</v>
+        <v>902</v>
       </c>
       <c r="E21" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F21" s="98"/>
       <c r="G21" s="98"/>
@@ -30146,16 +29909,16 @@
         <v>[Admin Module-12]</v>
       </c>
       <c r="B22" s="98" t="s">
-        <v>947</v>
+        <v>905</v>
       </c>
       <c r="C22" s="98" t="s">
-        <v>948</v>
+        <v>906</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>944</v>
+        <v>902</v>
       </c>
       <c r="E22" s="190" t="s">
-        <v>926</v>
+        <v>884</v>
       </c>
       <c r="F22" s="98"/>
       <c r="G22" s="98"/>
@@ -30404,7 +30167,7 @@
     <row r="23" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A23" s="187"/>
       <c r="B23" s="186" t="s">
-        <v>952</v>
+        <v>910</v>
       </c>
       <c r="C23" s="187"/>
       <c r="D23" s="187"/>
@@ -30659,13 +30422,13 @@
         <v>[Admin Module-14]</v>
       </c>
       <c r="B24" s="98" t="s">
-        <v>953</v>
+        <v>911</v>
       </c>
       <c r="C24" s="98" t="s">
-        <v>1168</v>
+        <v>1126</v>
       </c>
       <c r="D24" s="98" t="s">
-        <v>1169</v>
+        <v>1127</v>
       </c>
       <c r="E24" s="195"/>
       <c r="F24" s="98"/>
@@ -30918,13 +30681,13 @@
         <v>[Admin Module-15]</v>
       </c>
       <c r="B25" s="98" t="s">
-        <v>954</v>
+        <v>912</v>
       </c>
       <c r="C25" s="98" t="s">
-        <v>1168</v>
+        <v>1126</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>1169</v>
+        <v>1127</v>
       </c>
       <c r="E25" s="195"/>
       <c r="F25" s="98"/>
@@ -31177,13 +30940,13 @@
         <v>[Admin Module-16]</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>955</v>
+        <v>913</v>
       </c>
       <c r="C26" s="98" t="s">
-        <v>957</v>
+        <v>915</v>
       </c>
       <c r="D26" s="194" t="s">
-        <v>956</v>
+        <v>914</v>
       </c>
       <c r="E26" s="195"/>
       <c r="F26" s="98"/>
@@ -31436,13 +31199,13 @@
         <v>[Admin Module-17]</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>958</v>
+        <v>916</v>
       </c>
       <c r="C27" s="98" t="s">
-        <v>959</v>
+        <v>917</v>
       </c>
       <c r="D27" s="194" t="s">
-        <v>960</v>
+        <v>918</v>
       </c>
       <c r="E27" s="195"/>
       <c r="F27" s="98"/>
@@ -31692,7 +31455,7 @@
     <row r="28" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A28" s="187"/>
       <c r="B28" s="186" t="s">
-        <v>961</v>
+        <v>919</v>
       </c>
       <c r="C28" s="187"/>
       <c r="D28" s="187"/>
@@ -31947,13 +31710,13 @@
         <v>[Admin Module-19]</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>1170</v>
+        <v>1128</v>
       </c>
       <c r="C29" s="98" t="s">
-        <v>962</v>
+        <v>920</v>
       </c>
       <c r="D29" s="194" t="s">
-        <v>963</v>
+        <v>921</v>
       </c>
       <c r="E29" s="195"/>
       <c r="F29" s="98"/>
@@ -32203,7 +31966,7 @@
     <row r="30" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A30" s="187"/>
       <c r="B30" s="186" t="s">
-        <v>964</v>
+        <v>922</v>
       </c>
       <c r="C30" s="187"/>
       <c r="D30" s="187"/>
@@ -32458,13 +32221,13 @@
         <v>[Admin Module-21]</v>
       </c>
       <c r="B31" s="98" t="s">
-        <v>1171</v>
+        <v>1129</v>
       </c>
       <c r="C31" s="98" t="s">
-        <v>967</v>
+        <v>925</v>
       </c>
       <c r="D31" s="194" t="s">
-        <v>965</v>
+        <v>923</v>
       </c>
       <c r="E31" s="195"/>
       <c r="F31" s="98"/>
@@ -32717,13 +32480,13 @@
         <v>[Admin Module-22]</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>966</v>
+        <v>924</v>
       </c>
       <c r="C32" s="98" t="s">
-        <v>968</v>
+        <v>926</v>
       </c>
       <c r="D32" s="194" t="s">
-        <v>969</v>
+        <v>927</v>
       </c>
       <c r="E32" s="195"/>
       <c r="F32" s="98"/>
@@ -32976,13 +32739,13 @@
         <v>[Admin Module-23]</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>970</v>
+        <v>928</v>
       </c>
       <c r="C33" s="98" t="s">
-        <v>971</v>
+        <v>929</v>
       </c>
       <c r="D33" s="194" t="s">
-        <v>973</v>
+        <v>931</v>
       </c>
       <c r="E33" s="195"/>
       <c r="F33" s="98"/>
@@ -33235,16 +32998,16 @@
         <v>[Admin Module-24]</v>
       </c>
       <c r="B34" s="98" t="s">
-        <v>972</v>
+        <v>930</v>
       </c>
       <c r="C34" s="98" t="s">
-        <v>976</v>
+        <v>934</v>
       </c>
       <c r="D34" s="194" t="s">
-        <v>1172</v>
+        <v>1130</v>
       </c>
       <c r="E34" s="195" t="s">
-        <v>1173</v>
+        <v>1131</v>
       </c>
       <c r="F34" s="98"/>
       <c r="G34" s="98"/>
@@ -33496,13 +33259,13 @@
         <v>[Admin Module-25]</v>
       </c>
       <c r="B35" s="98" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="C35" s="98" t="s">
-        <v>975</v>
+        <v>933</v>
       </c>
       <c r="D35" s="194" t="s">
-        <v>977</v>
+        <v>935</v>
       </c>
       <c r="E35" s="195"/>
       <c r="F35" s="98"/>
@@ -33755,13 +33518,13 @@
         <v>[Admin Module-26]</v>
       </c>
       <c r="B36" s="98" t="s">
-        <v>974</v>
+        <v>932</v>
       </c>
       <c r="C36" s="98" t="s">
-        <v>978</v>
+        <v>936</v>
       </c>
       <c r="D36" s="194" t="s">
-        <v>979</v>
+        <v>937</v>
       </c>
       <c r="E36" s="195"/>
       <c r="F36" s="98"/>
@@ -34011,7 +33774,7 @@
     <row r="37" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A37" s="187"/>
       <c r="B37" s="186" t="s">
-        <v>980</v>
+        <v>938</v>
       </c>
       <c r="C37" s="187"/>
       <c r="D37" s="187"/>
@@ -34266,13 +34029,13 @@
         <v>[Admin Module-28]</v>
       </c>
       <c r="B38" s="98" t="s">
-        <v>981</v>
+        <v>939</v>
       </c>
       <c r="C38" s="98" t="s">
-        <v>1174</v>
+        <v>1132</v>
       </c>
       <c r="D38" s="194" t="s">
-        <v>982</v>
+        <v>940</v>
       </c>
       <c r="E38" s="195"/>
       <c r="F38" s="98"/>
@@ -34525,13 +34288,13 @@
         <v>[Admin Module-29]</v>
       </c>
       <c r="B39" s="98" t="s">
-        <v>984</v>
+        <v>942</v>
       </c>
       <c r="C39" s="98" t="s">
-        <v>983</v>
+        <v>941</v>
       </c>
       <c r="D39" s="194" t="s">
-        <v>985</v>
+        <v>943</v>
       </c>
       <c r="E39" s="195"/>
       <c r="F39" s="98"/>
@@ -34784,16 +34547,16 @@
         <v>[Admin Module-30]</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>986</v>
+        <v>944</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>987</v>
+        <v>945</v>
       </c>
       <c r="D40" s="194" t="s">
-        <v>988</v>
+        <v>946</v>
       </c>
       <c r="E40" s="195" t="s">
-        <v>1175</v>
+        <v>1133</v>
       </c>
       <c r="F40" s="98"/>
       <c r="G40" s="98"/>
@@ -35045,16 +34808,16 @@
         <v>[Admin Module-31]</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>989</v>
+        <v>947</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>990</v>
+        <v>948</v>
       </c>
       <c r="D41" s="194" t="s">
-        <v>991</v>
+        <v>949</v>
       </c>
       <c r="E41" s="195" t="s">
-        <v>1176</v>
+        <v>1134</v>
       </c>
       <c r="F41" s="98"/>
       <c r="G41" s="98"/>
@@ -35306,16 +35069,16 @@
         <v>[Admin Module-32]</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>992</v>
+        <v>950</v>
       </c>
       <c r="C42" s="98" t="s">
-        <v>1177</v>
+        <v>1135</v>
       </c>
       <c r="D42" s="194" t="s">
-        <v>1178</v>
+        <v>1136</v>
       </c>
       <c r="E42" s="195" t="s">
-        <v>1176</v>
+        <v>1134</v>
       </c>
       <c r="F42" s="98"/>
       <c r="G42" s="98"/>
@@ -35567,16 +35330,16 @@
         <v>[Admin Module-33]</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>995</v>
+        <v>953</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>1179</v>
+        <v>1137</v>
       </c>
       <c r="D43" s="194" t="s">
-        <v>1180</v>
+        <v>1138</v>
       </c>
       <c r="E43" s="195" t="s">
-        <v>1176</v>
+        <v>1134</v>
       </c>
       <c r="F43" s="98"/>
       <c r="G43" s="98"/>
@@ -35828,16 +35591,16 @@
         <v>[Admin Module-34]</v>
       </c>
       <c r="B44" s="98" t="s">
-        <v>994</v>
+        <v>952</v>
       </c>
       <c r="C44" s="98" t="s">
-        <v>1181</v>
+        <v>1139</v>
       </c>
       <c r="D44" s="194" t="s">
-        <v>1182</v>
+        <v>1140</v>
       </c>
       <c r="E44" s="195" t="s">
-        <v>1176</v>
+        <v>1134</v>
       </c>
       <c r="F44" s="98"/>
       <c r="G44" s="98"/>
@@ -36089,16 +35852,16 @@
         <v>[Admin Module-35]</v>
       </c>
       <c r="B45" s="98" t="s">
-        <v>993</v>
+        <v>951</v>
       </c>
       <c r="C45" s="98" t="s">
-        <v>1183</v>
+        <v>1141</v>
       </c>
       <c r="D45" s="194" t="s">
-        <v>1184</v>
+        <v>1142</v>
       </c>
       <c r="E45" s="195" t="s">
-        <v>1176</v>
+        <v>1134</v>
       </c>
       <c r="F45" s="98"/>
       <c r="G45" s="98"/>
@@ -36347,7 +36110,7 @@
     <row r="46" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A46" s="187"/>
       <c r="B46" s="186" t="s">
-        <v>996</v>
+        <v>954</v>
       </c>
       <c r="C46" s="187"/>
       <c r="D46" s="187"/>
@@ -36602,13 +36365,13 @@
         <v>[Admin Module-37]</v>
       </c>
       <c r="B47" s="98" t="s">
-        <v>997</v>
+        <v>955</v>
       </c>
       <c r="C47" s="98" t="s">
-        <v>999</v>
+        <v>957</v>
       </c>
       <c r="D47" s="194" t="s">
-        <v>998</v>
+        <v>956</v>
       </c>
       <c r="E47" s="195"/>
       <c r="F47" s="98"/>
@@ -36861,13 +36624,13 @@
         <v>[Admin Module-38]</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>1000</v>
+        <v>958</v>
       </c>
       <c r="C48" s="98" t="s">
-        <v>1001</v>
+        <v>959</v>
       </c>
       <c r="D48" s="194" t="s">
-        <v>1002</v>
+        <v>960</v>
       </c>
       <c r="E48" s="195"/>
       <c r="F48" s="98"/>
@@ -37117,7 +36880,7 @@
     <row r="49" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A49" s="187"/>
       <c r="B49" s="186" t="s">
-        <v>1003</v>
+        <v>961</v>
       </c>
       <c r="C49" s="187"/>
       <c r="D49" s="187"/>
@@ -37372,13 +37135,13 @@
         <v>[Admin Module-40]</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>1004</v>
+        <v>962</v>
       </c>
       <c r="C50" s="98" t="s">
-        <v>1005</v>
+        <v>963</v>
       </c>
       <c r="D50" s="194" t="s">
-        <v>1006</v>
+        <v>964</v>
       </c>
       <c r="E50" s="195"/>
       <c r="F50" s="98"/>
@@ -37631,13 +37394,13 @@
         <v>[Admin Module-41]</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>1007</v>
+        <v>965</v>
       </c>
       <c r="C51" s="98" t="s">
-        <v>1008</v>
+        <v>966</v>
       </c>
       <c r="D51" s="194" t="s">
-        <v>1185</v>
+        <v>1143</v>
       </c>
       <c r="E51" s="195"/>
       <c r="F51" s="98"/>
@@ -37890,13 +37653,13 @@
         <v>[Admin Module-42]</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>1009</v>
+        <v>967</v>
       </c>
       <c r="C52" s="98" t="s">
-        <v>1010</v>
+        <v>968</v>
       </c>
       <c r="D52" s="194" t="s">
-        <v>1011</v>
+        <v>969</v>
       </c>
       <c r="E52" s="195"/>
       <c r="F52" s="98"/>
@@ -38146,7 +37909,7 @@
     <row r="53" spans="1:248" s="92" customFormat="1" ht="14.25" customHeight="1">
       <c r="A53" s="187"/>
       <c r="B53" s="186" t="s">
-        <v>1012</v>
+        <v>970</v>
       </c>
       <c r="C53" s="187"/>
       <c r="D53" s="187"/>
@@ -38401,13 +38164,13 @@
         <v>[Admin Module-44]</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>1013</v>
+        <v>971</v>
       </c>
       <c r="C54" s="98" t="s">
-        <v>1014</v>
+        <v>972</v>
       </c>
       <c r="D54" s="194" t="s">
-        <v>1015</v>
+        <v>973</v>
       </c>
       <c r="E54" s="195"/>
       <c r="F54" s="98"/>
@@ -38660,13 +38423,13 @@
         <v>[Admin Module-45]</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>1016</v>
+        <v>974</v>
       </c>
       <c r="C55" s="98" t="s">
-        <v>1020</v>
+        <v>978</v>
       </c>
       <c r="D55" s="194" t="s">
-        <v>1017</v>
+        <v>975</v>
       </c>
       <c r="E55" s="195"/>
       <c r="F55" s="98"/>
@@ -38919,13 +38682,13 @@
         <v>[Admin Module-46]</v>
       </c>
       <c r="B56" s="98" t="s">
-        <v>1018</v>
+        <v>976</v>
       </c>
       <c r="C56" s="98" t="s">
-        <v>1019</v>
+        <v>977</v>
       </c>
       <c r="D56" s="194" t="s">
-        <v>1021</v>
+        <v>979</v>
       </c>
       <c r="E56" s="195"/>
       <c r="F56" s="98"/>
@@ -39175,7 +38938,7 @@
     <row r="57" spans="1:248" ht="14.25" customHeight="1">
       <c r="A57" s="187"/>
       <c r="B57" s="186" t="s">
-        <v>1022</v>
+        <v>980</v>
       </c>
       <c r="C57" s="187"/>
       <c r="D57" s="187"/>
@@ -39192,13 +38955,13 @@
         <v>[Admin Module-48]</v>
       </c>
       <c r="B58" s="98" t="s">
-        <v>1023</v>
+        <v>981</v>
       </c>
       <c r="C58" s="98" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="D58" s="98" t="s">
-        <v>873</v>
+        <v>831</v>
       </c>
       <c r="E58" s="195"/>
       <c r="F58" s="98"/>
@@ -39213,13 +38976,13 @@
         <v>[Admin Module-49]</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>874</v>
+        <v>832</v>
       </c>
       <c r="C59" s="98" t="s">
-        <v>875</v>
+        <v>833</v>
       </c>
       <c r="D59" s="98" t="s">
-        <v>876</v>
+        <v>834</v>
       </c>
       <c r="E59" s="195"/>
       <c r="F59" s="98"/>
@@ -39234,13 +38997,13 @@
         <v>[Admin Module-50]</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>877</v>
+        <v>835</v>
       </c>
       <c r="C60" s="98" t="s">
-        <v>878</v>
+        <v>836</v>
       </c>
       <c r="D60" s="98" t="s">
-        <v>879</v>
+        <v>837</v>
       </c>
       <c r="E60" s="195"/>
       <c r="F60" s="98"/>
@@ -39255,13 +39018,13 @@
         <v>[Admin Module-51]</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>880</v>
+        <v>838</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>881</v>
+        <v>839</v>
       </c>
       <c r="D61" s="98" t="s">
-        <v>882</v>
+        <v>840</v>
       </c>
       <c r="E61" s="195"/>
       <c r="F61" s="98"/>
@@ -39276,13 +39039,13 @@
         <v>[Admin Module-52]</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>869</v>
+        <v>827</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="D62" s="98" t="s">
-        <v>1186</v>
+        <v>1144</v>
       </c>
       <c r="E62" s="195"/>
       <c r="F62" s="98"/>
@@ -39297,13 +39060,13 @@
         <v>[Admin Module-53]</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>884</v>
+        <v>842</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>883</v>
+        <v>841</v>
       </c>
       <c r="D63" s="98" t="s">
-        <v>1186</v>
+        <v>1144</v>
       </c>
       <c r="E63" s="195"/>
       <c r="F63" s="98"/>
@@ -39318,13 +39081,13 @@
         <v>[Admin Module-54]</v>
       </c>
       <c r="B64" s="98" t="s">
-        <v>886</v>
+        <v>844</v>
       </c>
       <c r="C64" s="98" t="s">
-        <v>887</v>
+        <v>845</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="E64" s="195"/>
       <c r="F64" s="98"/>
@@ -39339,13 +39102,13 @@
         <v>[Admin Module-55]</v>
       </c>
       <c r="B65" s="98" t="s">
-        <v>889</v>
+        <v>847</v>
       </c>
       <c r="C65" s="98" t="s">
-        <v>890</v>
+        <v>848</v>
       </c>
       <c r="D65" s="98" t="s">
-        <v>888</v>
+        <v>846</v>
       </c>
       <c r="E65" s="195"/>
       <c r="F65" s="98"/>
@@ -39360,13 +39123,13 @@
         <v>[Admin Module-56]</v>
       </c>
       <c r="B66" s="98" t="s">
-        <v>893</v>
+        <v>851</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>891</v>
+        <v>849</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>892</v>
+        <v>850</v>
       </c>
       <c r="E66" s="195"/>
       <c r="F66" s="98"/>
@@ -39381,13 +39144,13 @@
         <v>[Admin Module-57]</v>
       </c>
       <c r="B67" s="98" t="s">
-        <v>894</v>
+        <v>852</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>872</v>
+        <v>830</v>
       </c>
       <c r="D67" s="98" t="s">
-        <v>895</v>
+        <v>853</v>
       </c>
       <c r="E67" s="195"/>
       <c r="F67" s="98"/>
@@ -39402,13 +39165,13 @@
         <v>[Admin Module-58]</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>896</v>
+        <v>854</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>897</v>
+        <v>855</v>
       </c>
       <c r="D68" s="98" t="s">
-        <v>898</v>
+        <v>856</v>
       </c>
       <c r="E68" s="195"/>
       <c r="F68" s="98"/>
@@ -39423,13 +39186,13 @@
         <v>[Admin Module-59]</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>903</v>
+        <v>861</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>907</v>
+        <v>865</v>
       </c>
       <c r="D69" s="98" t="s">
-        <v>904</v>
+        <v>862</v>
       </c>
       <c r="E69" s="195"/>
       <c r="F69" s="98"/>
@@ -39444,13 +39207,13 @@
         <v>[Admin Module-60]</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>905</v>
+        <v>863</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>1187</v>
+        <v>1145</v>
       </c>
       <c r="D70" s="98" t="s">
-        <v>1188</v>
+        <v>1146</v>
       </c>
       <c r="E70" s="168"/>
       <c r="F70" s="98"/>
@@ -39465,13 +39228,13 @@
         <v>[Admin Module-61]</v>
       </c>
       <c r="B71" s="98" t="s">
-        <v>913</v>
+        <v>871</v>
       </c>
       <c r="C71" s="98" t="s">
-        <v>914</v>
+        <v>872</v>
       </c>
       <c r="D71" s="98" t="s">
-        <v>1189</v>
+        <v>1147</v>
       </c>
       <c r="E71" s="168"/>
       <c r="F71" s="98"/>
@@ -39486,13 +39249,13 @@
         <v>[Admin Module-62]</v>
       </c>
       <c r="B72" s="98" t="s">
-        <v>917</v>
+        <v>875</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>919</v>
+        <v>877</v>
       </c>
       <c r="D72" s="98" t="s">
-        <v>918</v>
+        <v>876</v>
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="98"/>
@@ -39504,7 +39267,7 @@
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
       <c r="A73" s="187"/>
       <c r="B73" s="186" t="s">
-        <v>1024</v>
+        <v>982</v>
       </c>
       <c r="C73" s="187"/>
       <c r="D73" s="187"/>
@@ -39521,13 +39284,13 @@
         <v>[Admin Module-64]</v>
       </c>
       <c r="B74" s="98" t="s">
-        <v>1025</v>
+        <v>983</v>
       </c>
       <c r="C74" s="98" t="s">
-        <v>1026</v>
+        <v>984</v>
       </c>
       <c r="D74" s="194" t="s">
-        <v>1027</v>
+        <v>985</v>
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="98"/>
@@ -39542,13 +39305,13 @@
         <v>[Admin Module-65]</v>
       </c>
       <c r="B75" s="98" t="s">
-        <v>1025</v>
+        <v>983</v>
       </c>
       <c r="C75" s="98" t="s">
-        <v>1028</v>
+        <v>986</v>
       </c>
       <c r="D75" s="194" t="s">
-        <v>1029</v>
+        <v>987</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="98"/>
@@ -39563,13 +39326,13 @@
         <v>[Admin Module-66]</v>
       </c>
       <c r="B76" s="98" t="s">
-        <v>1030</v>
+        <v>988</v>
       </c>
       <c r="C76" s="98" t="s">
-        <v>1031</v>
+        <v>989</v>
       </c>
       <c r="D76" s="194" t="s">
-        <v>1032</v>
+        <v>990</v>
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="98"/>
@@ -39584,13 +39347,13 @@
         <v>[Admin Module-67]</v>
       </c>
       <c r="B77" s="98" t="s">
-        <v>1033</v>
+        <v>991</v>
       </c>
       <c r="C77" s="98" t="s">
-        <v>1034</v>
+        <v>992</v>
       </c>
       <c r="D77" s="194" t="s">
-        <v>1035</v>
+        <v>993</v>
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="98"/>
@@ -39605,13 +39368,13 @@
         <v>[Admin Module-68]</v>
       </c>
       <c r="B78" s="98" t="s">
-        <v>1036</v>
+        <v>994</v>
       </c>
       <c r="C78" s="98" t="s">
-        <v>1037</v>
+        <v>995</v>
       </c>
       <c r="D78" s="194" t="s">
-        <v>1038</v>
+        <v>996</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="98"/>
@@ -39626,13 +39389,13 @@
         <v>[Admin Module-69]</v>
       </c>
       <c r="B79" s="98" t="s">
-        <v>1039</v>
+        <v>997</v>
       </c>
       <c r="C79" s="98" t="s">
-        <v>1040</v>
+        <v>998</v>
       </c>
       <c r="D79" s="194" t="s">
-        <v>1190</v>
+        <v>1148</v>
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="98"/>
@@ -39647,13 +39410,13 @@
         <v>[Admin Module-70]</v>
       </c>
       <c r="B80" s="98" t="s">
-        <v>1041</v>
+        <v>999</v>
       </c>
       <c r="C80" s="98" t="s">
-        <v>1043</v>
+        <v>1001</v>
       </c>
       <c r="D80" s="194" t="s">
-        <v>1191</v>
+        <v>1149</v>
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="98"/>
@@ -39668,13 +39431,13 @@
         <v>[Admin Module-71]</v>
       </c>
       <c r="B81" s="98" t="s">
-        <v>1042</v>
+        <v>1000</v>
       </c>
       <c r="C81" s="98" t="s">
-        <v>1044</v>
+        <v>1002</v>
       </c>
       <c r="D81" s="194" t="s">
-        <v>1045</v>
+        <v>1003</v>
       </c>
       <c r="E81" s="168"/>
       <c r="F81" s="98"/>
@@ -39729,15 +39492,15 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:8" ht="25.5" customHeight="1">
-      <c r="B1" s="216" t="s">
+      <c r="B1" s="223" t="s">
         <v>37</v>
       </c>
-      <c r="C1" s="216"/>
-      <c r="D1" s="216"/>
-      <c r="E1" s="216"/>
-      <c r="F1" s="216"/>
-      <c r="G1" s="216"/>
-      <c r="H1" s="216"/>
+      <c r="C1" s="223"/>
+      <c r="D1" s="223"/>
+      <c r="E1" s="223"/>
+      <c r="F1" s="223"/>
+      <c r="G1" s="223"/>
+      <c r="H1" s="223"/>
     </row>
     <row r="2" spans="1:8" ht="14.25" customHeight="1">
       <c r="A2" s="55"/>
@@ -39753,15 +39516,15 @@
       <c r="B3" s="11" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="213" t="str">
+      <c r="C3" s="220" t="str">
         <f>Cover!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="D3" s="213"/>
-      <c r="E3" s="214" t="s">
+      <c r="D3" s="220"/>
+      <c r="E3" s="221" t="s">
         <v>2</v>
       </c>
-      <c r="F3" s="214"/>
+      <c r="F3" s="221"/>
       <c r="G3" s="58" t="s">
         <v>69</v>
       </c>
@@ -39771,15 +39534,15 @@
       <c r="B4" s="11" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="213" t="str">
+      <c r="C4" s="220" t="str">
         <f>Cover!C5</f>
         <v>DDL</v>
       </c>
-      <c r="D4" s="213"/>
-      <c r="E4" s="214" t="s">
+      <c r="D4" s="220"/>
+      <c r="E4" s="221" t="s">
         <v>4</v>
       </c>
-      <c r="F4" s="214"/>
+      <c r="F4" s="221"/>
       <c r="G4" s="58" t="s">
         <v>70</v>
       </c>
@@ -39789,15 +39552,15 @@
       <c r="B5" s="60" t="s">
         <v>5</v>
       </c>
-      <c r="C5" s="213" t="str">
+      <c r="C5" s="220" t="str">
         <f>C4&amp;"_"&amp;"System Test Report"&amp;"_"&amp;"v1.0"</f>
         <v>DDL_System Test Report_v1.0</v>
       </c>
-      <c r="D5" s="213"/>
-      <c r="E5" s="214" t="s">
+      <c r="D5" s="220"/>
+      <c r="E5" s="221" t="s">
         <v>6</v>
       </c>
-      <c r="F5" s="214"/>
+      <c r="F5" s="221"/>
       <c r="G5" s="95">
         <v>42307</v>
       </c>
@@ -39808,12 +39571,12 @@
       <c r="B6" s="60" t="s">
         <v>38</v>
       </c>
-      <c r="C6" s="215"/>
-      <c r="D6" s="215"/>
-      <c r="E6" s="215"/>
-      <c r="F6" s="215"/>
-      <c r="G6" s="215"/>
-      <c r="H6" s="215"/>
+      <c r="C6" s="222"/>
+      <c r="D6" s="222"/>
+      <c r="E6" s="222"/>
+      <c r="F6" s="222"/>
+      <c r="G6" s="222"/>
+      <c r="H6" s="222"/>
     </row>
     <row r="7" spans="1:8" ht="14.25" customHeight="1">
       <c r="A7" s="55"/>
@@ -39973,7 +39736,7 @@
       </c>
       <c r="F14" s="132">
         <f>'Create Edit Project'!C6</f>
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="G14" s="132">
         <f>'Create Edit Project'!D6</f>
@@ -39981,7 +39744,7 @@
       </c>
       <c r="H14" s="132">
         <f>'Create Edit Project'!E6</f>
-        <v>228</v>
+        <v>198</v>
       </c>
     </row>
     <row r="15" spans="1:8" ht="14.45" customHeight="1">
@@ -39990,7 +39753,7 @@
         <v>5</v>
       </c>
       <c r="C15" s="124" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="D15" s="132">
         <f>'Project Detail'!A6</f>
@@ -40002,7 +39765,7 @@
       </c>
       <c r="F15" s="132">
         <f>'Project Detail'!C6</f>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="G15" s="132">
         <f>'Project Detail'!D6</f>
@@ -40010,7 +39773,7 @@
       </c>
       <c r="H15" s="132">
         <f>'Project Detail'!E6</f>
-        <v>86</v>
+        <v>82</v>
       </c>
     </row>
     <row r="16" spans="1:8" ht="14.45" customHeight="1">
@@ -40019,7 +39782,7 @@
         <v>6</v>
       </c>
       <c r="C16" s="122" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="D16" s="121">
         <f>'Back Project'!A6</f>
@@ -40048,7 +39811,7 @@
         <v>7</v>
       </c>
       <c r="C17" s="122" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="D17" s="121">
         <f>'Project management'!A6</f>
@@ -40077,7 +39840,7 @@
         <v>8</v>
       </c>
       <c r="C18" s="122" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="D18" s="121">
         <f>Discover!A6</f>
@@ -40106,7 +39869,7 @@
         <v>9</v>
       </c>
       <c r="C19" s="122" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="D19" s="121">
         <f>Statistic!A6</f>
@@ -40135,7 +39898,7 @@
         <v>10</v>
       </c>
       <c r="C20" s="122" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="D20" s="121">
         <f>Message!A6</f>
@@ -40164,7 +39927,7 @@
         <v>11</v>
       </c>
       <c r="C21" s="123" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="D21" s="121">
         <f>'Admin Module'!A6</f>
@@ -40233,7 +39996,7 @@
       </c>
       <c r="F25" s="119">
         <f>SUM(F11:F24)</f>
-        <v>798</v>
+        <v>764</v>
       </c>
       <c r="G25" s="119">
         <f>SUM(G11:G24)</f>
@@ -40241,7 +40004,7 @@
       </c>
       <c r="H25" s="120">
         <f>SUM(H11:H24)</f>
-        <v>798</v>
+        <v>764</v>
       </c>
     </row>
     <row r="26" spans="1:8">
@@ -40357,39 +40120,39 @@
       <c r="E2" s="38"/>
     </row>
     <row r="3" spans="2:6">
-      <c r="B3" s="219" t="s">
+      <c r="B3" s="226" t="s">
         <v>1</v>
       </c>
-      <c r="C3" s="219"/>
-      <c r="D3" s="213" t="str">
+      <c r="C3" s="226"/>
+      <c r="D3" s="220" t="str">
         <f>Cover!C4</f>
         <v>Dandelion</v>
       </c>
-      <c r="E3" s="213"/>
-      <c r="F3" s="213"/>
+      <c r="E3" s="220"/>
+      <c r="F3" s="220"/>
     </row>
     <row r="4" spans="2:6">
-      <c r="B4" s="219" t="s">
+      <c r="B4" s="226" t="s">
         <v>3</v>
       </c>
-      <c r="C4" s="219"/>
-      <c r="D4" s="213" t="str">
+      <c r="C4" s="226"/>
+      <c r="D4" s="220" t="str">
         <f>Cover!C5</f>
         <v>DDL</v>
       </c>
-      <c r="E4" s="213"/>
-      <c r="F4" s="213"/>
+      <c r="E4" s="220"/>
+      <c r="F4" s="220"/>
     </row>
     <row r="5" spans="2:6" s="39" customFormat="1" ht="84.75" customHeight="1">
-      <c r="B5" s="217" t="s">
+      <c r="B5" s="224" t="s">
         <v>15</v>
       </c>
-      <c r="C5" s="217"/>
-      <c r="D5" s="218" t="s">
+      <c r="C5" s="224"/>
+      <c r="D5" s="225" t="s">
         <v>72</v>
       </c>
-      <c r="E5" s="218"/>
-      <c r="F5" s="218"/>
+      <c r="E5" s="225"/>
+      <c r="F5" s="225"/>
     </row>
     <row r="6" spans="2:6">
       <c r="B6" s="40"/>
@@ -40466,7 +40229,7 @@
         <v>4</v>
       </c>
       <c r="C12" s="129" t="s">
-        <v>1046</v>
+        <v>1004</v>
       </c>
       <c r="D12" s="124" t="s">
         <v>279</v>
@@ -40479,10 +40242,10 @@
         <v>5</v>
       </c>
       <c r="C13" s="129" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="D13" s="124" t="s">
-        <v>571</v>
+        <v>533</v>
       </c>
       <c r="E13" s="130"/>
       <c r="F13" s="131"/>
@@ -40492,10 +40255,10 @@
         <v>6</v>
       </c>
       <c r="C14" s="129" t="s">
-        <v>1047</v>
+        <v>1005</v>
       </c>
       <c r="D14" s="122" t="s">
-        <v>579</v>
+        <v>540</v>
       </c>
       <c r="E14" s="131"/>
       <c r="F14" s="131"/>
@@ -40505,10 +40268,10 @@
         <v>7</v>
       </c>
       <c r="C15" s="129" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="D15" s="122" t="s">
-        <v>737</v>
+        <v>695</v>
       </c>
       <c r="E15" s="131"/>
       <c r="F15" s="131"/>
@@ -40518,10 +40281,10 @@
         <v>8</v>
       </c>
       <c r="C16" s="129" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="D16" s="122" t="s">
-        <v>808</v>
+        <v>766</v>
       </c>
       <c r="E16" s="131"/>
       <c r="F16" s="131"/>
@@ -40531,10 +40294,10 @@
         <v>9</v>
       </c>
       <c r="C17" s="129" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="D17" s="122" t="s">
-        <v>827</v>
+        <v>785</v>
       </c>
       <c r="E17" s="131"/>
       <c r="F17" s="131"/>
@@ -40544,10 +40307,10 @@
         <v>10</v>
       </c>
       <c r="C18" s="129" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="D18" s="122" t="s">
-        <v>828</v>
+        <v>786</v>
       </c>
       <c r="E18" s="131"/>
       <c r="F18" s="131"/>
@@ -40557,10 +40320,10 @@
         <v>11</v>
       </c>
       <c r="C19" s="129" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="D19" s="123" t="s">
-        <v>920</v>
+        <v>878</v>
       </c>
       <c r="E19" s="131"/>
       <c r="F19" s="131"/>
@@ -40627,21 +40390,21 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:3" ht="14.25" customHeight="1">
-      <c r="A1" s="220" t="s">
+      <c r="A1" s="227" t="s">
         <v>188</v>
       </c>
-      <c r="B1" s="220"/>
-      <c r="C1" s="220"/>
+      <c r="B1" s="227"/>
+      <c r="C1" s="227"/>
     </row>
     <row r="2" spans="1:3" ht="14.25" customHeight="1" thickBot="1"/>
     <row r="3" spans="1:3" ht="15">
-      <c r="A3" s="242" t="s">
+      <c r="A3" s="213" t="s">
         <v>16</v>
       </c>
-      <c r="B3" s="243" t="s">
+      <c r="B3" s="214" t="s">
         <v>187</v>
       </c>
-      <c r="C3" s="244" t="s">
+      <c r="C3" s="215" t="s">
         <v>186</v>
       </c>
     </row>
@@ -40659,7 +40422,7 @@
         <v>207</v>
       </c>
       <c r="B5" s="151" t="s">
-        <v>1192</v>
+        <v>1150</v>
       </c>
       <c r="C5" s="151"/>
     </row>
@@ -40704,7 +40467,7 @@
         <v>212</v>
       </c>
       <c r="B10" s="151" t="s">
-        <v>1069</v>
+        <v>1027</v>
       </c>
       <c r="C10" s="151"/>
     </row>
@@ -40749,7 +40512,7 @@
         <v>199</v>
       </c>
       <c r="B15" s="151" t="s">
-        <v>1078</v>
+        <v>1036</v>
       </c>
       <c r="C15" s="151"/>
     </row>
@@ -40758,7 +40521,7 @@
         <v>200</v>
       </c>
       <c r="B16" s="151" t="s">
-        <v>1098</v>
+        <v>1056</v>
       </c>
       <c r="C16" s="151"/>
     </row>
@@ -40818,106 +40581,106 @@
     </row>
     <row r="23" spans="1:3" ht="15">
       <c r="A23" s="153" t="s">
-        <v>372</v>
+        <v>370</v>
       </c>
       <c r="B23" s="151" t="s">
-        <v>376</v>
+        <v>374</v>
       </c>
       <c r="C23" s="151"/>
     </row>
     <row r="24" spans="1:3" ht="15">
       <c r="A24" s="153" t="s">
-        <v>373</v>
+        <v>371</v>
       </c>
       <c r="B24" s="151" t="s">
-        <v>381</v>
+        <v>379</v>
       </c>
       <c r="C24" s="151"/>
     </row>
     <row r="25" spans="1:3" ht="15">
       <c r="A25" s="153" t="s">
-        <v>374</v>
+        <v>372</v>
       </c>
       <c r="B25" s="151" t="s">
-        <v>435</v>
+        <v>433</v>
       </c>
       <c r="C25" s="151"/>
     </row>
     <row r="26" spans="1:3" ht="15">
       <c r="A26" s="173" t="s">
-        <v>375</v>
+        <v>373</v>
       </c>
       <c r="B26" s="151" t="s">
-        <v>444</v>
+        <v>442</v>
       </c>
       <c r="C26" s="151"/>
     </row>
     <row r="27" spans="1:3" ht="15">
       <c r="A27" s="173" t="s">
-        <v>449</v>
+        <v>447</v>
       </c>
       <c r="B27" s="151" t="s">
-        <v>450</v>
+        <v>448</v>
       </c>
       <c r="C27" s="151"/>
     </row>
     <row r="28" spans="1:3" ht="15">
       <c r="A28" s="173" t="s">
-        <v>481</v>
+        <v>479</v>
       </c>
       <c r="B28" s="151" t="s">
-        <v>488</v>
+        <v>486</v>
       </c>
       <c r="C28" s="151"/>
     </row>
     <row r="29" spans="1:3" ht="15">
       <c r="A29" s="173" t="s">
-        <v>482</v>
+        <v>480</v>
       </c>
       <c r="B29" s="151" t="s">
-        <v>489</v>
+        <v>487</v>
       </c>
       <c r="C29" s="151"/>
     </row>
     <row r="30" spans="1:3" ht="15">
       <c r="A30" s="173" t="s">
-        <v>483</v>
+        <v>481</v>
       </c>
       <c r="B30" s="151" t="s">
-        <v>615</v>
+        <v>576</v>
       </c>
       <c r="C30" s="151"/>
     </row>
     <row r="31" spans="1:3" ht="15">
       <c r="A31" s="173" t="s">
-        <v>484</v>
+        <v>482</v>
       </c>
       <c r="B31" s="151" t="s">
-        <v>1081</v>
+        <v>1039</v>
       </c>
       <c r="C31" s="151"/>
     </row>
     <row r="32" spans="1:3" ht="15">
       <c r="A32" s="173" t="s">
-        <v>485</v>
+        <v>483</v>
       </c>
       <c r="B32" s="151" t="s">
-        <v>1099</v>
+        <v>1057</v>
       </c>
       <c r="C32" s="151"/>
     </row>
     <row r="33" spans="1:3" ht="15">
       <c r="A33" s="173" t="s">
-        <v>486</v>
+        <v>484</v>
       </c>
       <c r="B33" s="151" t="s">
-        <v>1102</v>
+        <v>1060</v>
       </c>
       <c r="C33" s="151"/>
     </row>
     <row r="34" spans="1:3" ht="15">
       <c r="A34" s="173" t="s">
-        <v>487</v>
+        <v>485</v>
       </c>
       <c r="B34" s="151"/>
       <c r="C34" s="151"/>
@@ -40935,7 +40698,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IP24"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="C25" sqref="C25"/>
     </sheetView>
   </sheetViews>
@@ -40966,7 +40729,7 @@
       <c r="H1" s="78"/>
       <c r="I1" s="78"/>
       <c r="J1" s="78" t="s">
-        <v>1048</v>
+        <v>1006</v>
       </c>
       <c r="K1" s="78"/>
       <c r="L1" s="78"/>
@@ -41213,14 +40976,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="228" t="s">
         <v>48</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="227"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="230"/>
       <c r="H2" s="78"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -41471,14 +41234,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="230"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233"/>
       <c r="H3" s="78"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -41729,14 +41492,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="233"/>
       <c r="H4" s="78"/>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
@@ -41994,11 +41757,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="233"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="236"/>
       <c r="H5" s="78"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -42262,12 +42025,12 @@
         <f>COUNTIF(F12:G152,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="234">
+      <c r="E6" s="237">
         <f>COUNTA(A12:A152)*2</f>
         <v>16</v>
       </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="78"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -43287,10 +43050,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -43820,13 +43583,13 @@
         <v>[Common Module-3]</v>
       </c>
       <c r="B13" s="111" t="s">
-        <v>1056</v>
+        <v>1014</v>
       </c>
       <c r="C13" s="111" t="s">
-        <v>1057</v>
+        <v>1015</v>
       </c>
       <c r="D13" s="165" t="s">
-        <v>1058</v>
+        <v>1016</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="98"/>
@@ -43846,7 +43609,7 @@
         <v>74</v>
       </c>
       <c r="D14" s="165" t="s">
-        <v>1059</v>
+        <v>1017</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="98"/>
@@ -43897,7 +43660,7 @@
     <row r="17" spans="1:250" s="143" customFormat="1" ht="14.25" customHeight="1">
       <c r="A17" s="154"/>
       <c r="B17" s="154" t="s">
-        <v>1049</v>
+        <v>1007</v>
       </c>
       <c r="C17" s="155"/>
       <c r="D17" s="155"/>
@@ -44174,13 +43937,13 @@
         <v>[Common Module-9]</v>
       </c>
       <c r="B19" s="98" t="s">
-        <v>1050</v>
+        <v>1008</v>
       </c>
       <c r="C19" s="98" t="s">
-        <v>1052</v>
+        <v>1010</v>
       </c>
       <c r="D19" s="175" t="s">
-        <v>1054</v>
+        <v>1012</v>
       </c>
       <c r="E19" s="157"/>
       <c r="F19" s="98"/>
@@ -44194,13 +43957,13 @@
         <v>[Common Module-10]</v>
       </c>
       <c r="B20" s="98" t="s">
-        <v>1051</v>
+        <v>1009</v>
       </c>
       <c r="C20" s="98" t="s">
-        <v>1053</v>
+        <v>1011</v>
       </c>
       <c r="D20" s="175" t="s">
-        <v>1055</v>
+        <v>1013</v>
       </c>
       <c r="E20" s="157"/>
       <c r="F20" s="98"/>
@@ -44557,14 +44320,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="240" t="s">
         <v>64</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78"/>
@@ -44822,14 +44585,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="240" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78"/>
@@ -45087,14 +44850,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="78"/>
@@ -45359,11 +45122,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78"/>
@@ -45634,12 +45397,12 @@
         <f>COUNTIF(F12:G153,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A12:A153)*2</f>
         <v>30</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78"/>
@@ -46673,10 +46436,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -47324,7 +47087,7 @@
         <v>63</v>
       </c>
       <c r="D18" s="107" t="s">
-        <v>1104</v>
+        <v>1062</v>
       </c>
       <c r="E18" s="109"/>
       <c r="F18" s="111"/>
@@ -47455,7 +47218,7 @@
         <v>82</v>
       </c>
       <c r="C24" s="107" t="s">
-        <v>1105</v>
+        <v>1063</v>
       </c>
       <c r="D24" s="107" t="s">
         <v>83</v>
@@ -47477,7 +47240,7 @@
         <v>82</v>
       </c>
       <c r="C25" s="107" t="s">
-        <v>1106</v>
+        <v>1064</v>
       </c>
       <c r="D25" s="107" t="s">
         <v>83</v>
@@ -47545,8 +47308,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:IW84"/>
   <sheetViews>
-    <sheetView topLeftCell="A61" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="C81" sqref="C81"/>
+    <sheetView tabSelected="1" topLeftCell="A34" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B51" sqref="B51"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -47827,14 +47590,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
+      <c r="B2" s="240" t="s">
         <v>94</v>
       </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -48085,14 +47848,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
+      <c r="B3" s="240" t="s">
         <v>131</v>
       </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -48343,14 +48106,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -48608,11 +48371,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -48876,12 +48639,12 @@
         <f>COUNTIF(F12:G150,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
+      <c r="E6" s="243">
         <f>COUNTA(A12:A150)*2</f>
         <v>120</v>
       </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -49908,10 +49671,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -51198,7 +50961,7 @@
         <v>[Account Management Module-5]</v>
       </c>
       <c r="B15" s="111" t="s">
-        <v>1060</v>
+        <v>1018</v>
       </c>
       <c r="C15" s="111" t="s">
         <v>133</v>
@@ -51224,7 +50987,7 @@
         <v>100</v>
       </c>
       <c r="C16" s="111" t="s">
-        <v>1061</v>
+        <v>1019</v>
       </c>
       <c r="D16" s="111" t="s">
         <v>134</v>
@@ -51250,7 +51013,7 @@
         <v>234</v>
       </c>
       <c r="D17" s="111" t="s">
-        <v>1063</v>
+        <v>1021</v>
       </c>
       <c r="E17" s="111" t="s">
         <v>99</v>
@@ -51273,7 +51036,7 @@
         <v>235</v>
       </c>
       <c r="D18" s="111" t="s">
-        <v>1062</v>
+        <v>1020</v>
       </c>
       <c r="E18" s="111" t="s">
         <v>99</v>
@@ -51388,7 +51151,7 @@
         <v>138</v>
       </c>
       <c r="D23" s="111" t="s">
-        <v>1064</v>
+        <v>1022</v>
       </c>
       <c r="E23" s="111" t="s">
         <v>99</v>
@@ -52030,7 +51793,7 @@
         <v>248</v>
       </c>
       <c r="D31" s="111" t="s">
-        <v>1065</v>
+        <v>1023</v>
       </c>
       <c r="E31" s="111" t="s">
         <v>99</v>
@@ -52050,7 +51813,7 @@
         <v>259</v>
       </c>
       <c r="C32" s="111" t="s">
-        <v>1066</v>
+        <v>1024</v>
       </c>
       <c r="D32" s="111" t="s">
         <v>243</v>
@@ -52073,10 +51836,10 @@
         <v>244</v>
       </c>
       <c r="C33" s="111" t="s">
-        <v>1067</v>
+        <v>1025</v>
       </c>
       <c r="D33" s="111" t="s">
-        <v>1068</v>
+        <v>1026</v>
       </c>
       <c r="E33" s="111" t="s">
         <v>115</v>
@@ -52119,10 +51882,10 @@
         <v>249</v>
       </c>
       <c r="C35" s="111" t="s">
-        <v>1070</v>
+        <v>1028</v>
       </c>
       <c r="D35" s="111" t="s">
-        <v>1071</v>
+        <v>1029</v>
       </c>
       <c r="E35" s="111"/>
       <c r="F35" s="111"/>
@@ -52140,10 +51903,10 @@
         <v>250</v>
       </c>
       <c r="C36" s="111" t="s">
-        <v>1073</v>
+        <v>1031</v>
       </c>
       <c r="D36" s="111" t="s">
-        <v>1072</v>
+        <v>1030</v>
       </c>
       <c r="E36" s="54" t="s">
         <v>97</v>
@@ -52166,7 +51929,7 @@
         <v>252</v>
       </c>
       <c r="D37" s="111" t="s">
-        <v>1166</v>
+        <v>1124</v>
       </c>
       <c r="E37" s="54" t="s">
         <v>97</v>
@@ -52183,13 +51946,13 @@
         <v>[Account Management Module-28]</v>
       </c>
       <c r="B38" s="111" t="s">
-        <v>1075</v>
+        <v>1033</v>
       </c>
       <c r="C38" s="111" t="s">
-        <v>1076</v>
+        <v>1034</v>
       </c>
       <c r="D38" s="111" t="s">
-        <v>1077</v>
+        <v>1035</v>
       </c>
       <c r="E38" s="54"/>
       <c r="F38" s="111"/>
@@ -52207,7 +51970,7 @@
         <v>257</v>
       </c>
       <c r="C39" s="111" t="s">
-        <v>1074</v>
+        <v>1032</v>
       </c>
       <c r="D39" s="111" t="s">
         <v>256</v>
@@ -52253,10 +52016,10 @@
         <v>260</v>
       </c>
       <c r="C41" s="111" t="s">
-        <v>1079</v>
+        <v>1037</v>
       </c>
       <c r="D41" s="146" t="s">
-        <v>1080</v>
+        <v>1038</v>
       </c>
       <c r="E41" s="111" t="s">
         <v>115</v>
@@ -52302,7 +52065,7 @@
         <v>145</v>
       </c>
       <c r="D43" s="146" t="s">
-        <v>1082</v>
+        <v>1040</v>
       </c>
       <c r="E43" s="111" t="s">
         <v>115</v>
@@ -52319,10 +52082,10 @@
         <v>[Account Management Module-34]</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>1083</v>
+        <v>1041</v>
       </c>
       <c r="C44" s="111" t="s">
-        <v>1084</v>
+        <v>1042</v>
       </c>
       <c r="D44" s="146" t="s">
         <v>262</v>
@@ -52345,7 +52108,7 @@
         <v>261</v>
       </c>
       <c r="C45" s="111" t="s">
-        <v>1085</v>
+        <v>1043</v>
       </c>
       <c r="D45" s="146" t="s">
         <v>146</v>
@@ -52408,7 +52171,7 @@
         <v>150</v>
       </c>
       <c r="D48" s="111" t="s">
-        <v>1086</v>
+        <v>1044</v>
       </c>
       <c r="E48" s="111" t="s">
         <v>119</v>
@@ -52454,7 +52217,7 @@
         <v>153</v>
       </c>
       <c r="D50" s="111" t="s">
-        <v>1087</v>
+        <v>1045</v>
       </c>
       <c r="E50" s="111" t="s">
         <v>119</v>
@@ -52477,7 +52240,7 @@
         <v>154</v>
       </c>
       <c r="D51" s="111" t="s">
-        <v>1088</v>
+        <v>1046</v>
       </c>
       <c r="E51" s="111" t="s">
         <v>119</v>
@@ -52500,7 +52263,7 @@
         <v>157</v>
       </c>
       <c r="D52" s="111" t="s">
-        <v>1089</v>
+        <v>1047</v>
       </c>
       <c r="E52" s="111" t="s">
         <v>119</v>
@@ -52755,13 +52518,13 @@
         <v>[Account Management Module-43]</v>
       </c>
       <c r="B53" s="111" t="s">
-        <v>1193</v>
+        <v>1151</v>
       </c>
       <c r="C53" s="111" t="s">
         <v>160</v>
       </c>
       <c r="D53" s="111" t="s">
-        <v>1090</v>
+        <v>1048</v>
       </c>
       <c r="E53" s="111" t="s">
         <v>115</v>
@@ -52852,7 +52615,7 @@
         <v>172</v>
       </c>
       <c r="D57" s="148" t="s">
-        <v>1092</v>
+        <v>1050</v>
       </c>
       <c r="E57" s="111" t="s">
         <v>119</v>
@@ -52874,7 +52637,7 @@
         <v>173</v>
       </c>
       <c r="D58" s="148" t="s">
-        <v>1091</v>
+        <v>1049</v>
       </c>
       <c r="E58" s="111" t="s">
         <v>119</v>
@@ -52917,7 +52680,7 @@
       <c r="F60" s="52"/>
       <c r="G60" s="52"/>
       <c r="H60" s="52"/>
-      <c r="I60" s="238"/>
+      <c r="I60" s="209"/>
       <c r="J60" s="90"/>
     </row>
     <row r="61" spans="1:248" ht="14.25" customHeight="1">
@@ -52932,7 +52695,7 @@
         <v>147</v>
       </c>
       <c r="D61" s="111" t="s">
-        <v>1097</v>
+        <v>1055</v>
       </c>
       <c r="E61" s="111" t="s">
         <v>119</v>
@@ -52955,7 +52718,7 @@
         <v>147</v>
       </c>
       <c r="D62" s="111" t="s">
-        <v>1096</v>
+        <v>1054</v>
       </c>
       <c r="E62" s="111" t="s">
         <v>119</v>
@@ -52978,7 +52741,7 @@
         <v>169</v>
       </c>
       <c r="D63" s="111" t="s">
-        <v>1093</v>
+        <v>1051</v>
       </c>
       <c r="E63" s="111" t="s">
         <v>119</v>
@@ -52995,10 +52758,10 @@
         <v>[Account Management Module-54]</v>
       </c>
       <c r="B64" s="111" t="s">
-        <v>1095</v>
+        <v>1053</v>
       </c>
       <c r="C64" s="111" t="s">
-        <v>1094</v>
+        <v>1052</v>
       </c>
       <c r="D64" s="111" t="s">
         <v>266</v>
@@ -53022,7 +52785,7 @@
         <v>268</v>
       </c>
       <c r="D65" s="111" t="s">
-        <v>1100</v>
+        <v>1058</v>
       </c>
       <c r="E65" s="111" t="s">
         <v>119</v>
@@ -53136,7 +52899,7 @@
       <c r="F70" s="52"/>
       <c r="G70" s="52"/>
       <c r="H70" s="52"/>
-      <c r="I70" s="238"/>
+      <c r="I70" s="209"/>
       <c r="J70" s="90"/>
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
@@ -53240,7 +53003,7 @@
         <v>275</v>
       </c>
       <c r="C75" s="111" t="s">
-        <v>1101</v>
+        <v>1059</v>
       </c>
       <c r="D75" s="148" t="s">
         <v>274</v>
@@ -53266,7 +53029,7 @@
         <v>185</v>
       </c>
       <c r="D76" s="111" t="s">
-        <v>1103</v>
+        <v>1061</v>
       </c>
       <c r="E76" s="111" t="s">
         <v>129</v>
@@ -53334,10 +53097,10 @@
 
 <file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW127"/>
+  <dimension ref="A1:IW112"/>
   <sheetViews>
-    <sheetView zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="D131" sqref="A124:D131"/>
+    <sheetView topLeftCell="A100" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B112" sqref="B112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -53615,14 +53378,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="225" t="s">
+      <c r="B2" s="228" t="s">
         <v>279</v>
       </c>
-      <c r="C2" s="226"/>
-      <c r="D2" s="226"/>
-      <c r="E2" s="226"/>
-      <c r="F2" s="226"/>
-      <c r="G2" s="227"/>
+      <c r="C2" s="229"/>
+      <c r="D2" s="229"/>
+      <c r="E2" s="229"/>
+      <c r="F2" s="229"/>
+      <c r="G2" s="230"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -53873,14 +53636,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="228" t="s">
+      <c r="B3" s="231" t="s">
         <v>73</v>
       </c>
-      <c r="C3" s="229"/>
-      <c r="D3" s="229"/>
-      <c r="E3" s="229"/>
-      <c r="F3" s="229"/>
-      <c r="G3" s="230"/>
+      <c r="C3" s="232"/>
+      <c r="D3" s="232"/>
+      <c r="E3" s="232"/>
+      <c r="F3" s="232"/>
+      <c r="G3" s="233"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -54131,14 +53894,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="228" t="s">
+      <c r="B4" s="231" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="229"/>
-      <c r="D4" s="229"/>
-      <c r="E4" s="229"/>
-      <c r="F4" s="229"/>
-      <c r="G4" s="230"/>
+      <c r="C4" s="232"/>
+      <c r="D4" s="232"/>
+      <c r="E4" s="232"/>
+      <c r="F4" s="232"/>
+      <c r="G4" s="233"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -54396,11 +54159,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="231" t="s">
+      <c r="E5" s="234" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="232"/>
-      <c r="G5" s="233"/>
+      <c r="F5" s="235"/>
+      <c r="G5" s="236"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -54649,27 +54412,27 @@
     </row>
     <row r="6" spans="1:257" ht="14.25" customHeight="1" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G159,"Pass")</f>
+        <f>COUNTIF(F12:G144,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G159,"Fail")</f>
+        <f>COUNTIF(F12:G144,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>228</v>
+        <v>198</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G159,"N/A")</f>
+        <f>COUNTIF(F12:G144,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="234">
-        <f>COUNTA(A12:A159)*2</f>
-        <v>228</v>
-      </c>
-      <c r="F6" s="235"/>
-      <c r="G6" s="236"/>
+      <c r="E6" s="237">
+        <f>COUNTA(A12:A144)*2</f>
+        <v>198</v>
+      </c>
+      <c r="F6" s="238"/>
+      <c r="G6" s="239"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -55696,10 +55459,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -56310,13 +56073,13 @@
         <v>[Create Edit Project-7]</v>
       </c>
       <c r="B17" s="111" t="s">
-        <v>1107</v>
+        <v>1065</v>
       </c>
       <c r="C17" s="165" t="s">
         <v>297</v>
       </c>
       <c r="D17" s="98" t="s">
-        <v>475</v>
+        <v>473</v>
       </c>
       <c r="E17" s="104"/>
       <c r="F17" s="96"/>
@@ -56358,7 +56121,7 @@
         <v>301</v>
       </c>
       <c r="D19" s="98" t="s">
-        <v>1108</v>
+        <v>1066</v>
       </c>
       <c r="E19" s="104"/>
       <c r="F19" s="96"/>
@@ -56421,7 +56184,7 @@
         <v>304</v>
       </c>
       <c r="D22" s="98" t="s">
-        <v>1226</v>
+        <v>1184</v>
       </c>
       <c r="E22" s="104"/>
       <c r="F22" s="96"/>
@@ -56477,7 +56240,7 @@
         <v>323</v>
       </c>
       <c r="D25" s="98" t="s">
-        <v>1109</v>
+        <v>1067</v>
       </c>
       <c r="E25" s="104"/>
       <c r="F25" s="96"/>
@@ -56498,7 +56261,7 @@
         <v>309</v>
       </c>
       <c r="D26" s="98" t="s">
-        <v>1109</v>
+        <v>1067</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="96"/>
@@ -56519,7 +56282,7 @@
         <v>320</v>
       </c>
       <c r="D27" s="98" t="s">
-        <v>1110</v>
+        <v>1068</v>
       </c>
       <c r="E27" s="168"/>
       <c r="F27" s="96"/>
@@ -56540,7 +56303,7 @@
         <v>321</v>
       </c>
       <c r="D28" s="98" t="s">
-        <v>1110</v>
+        <v>1068</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="96"/>
@@ -56572,7 +56335,7 @@
     </row>
     <row r="30" spans="1:10" ht="14.25" customHeight="1">
       <c r="A30" s="160" t="str">
-        <f t="shared" ref="A30:A53" si="2">IF(OR(B30&lt;&gt;"",D30&lt;E29&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A30:A52" si="2">IF(OR(B30&lt;&gt;"",D30&lt;E29&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-20]</v>
       </c>
       <c r="B30" s="98" t="s">
@@ -56726,10 +56489,10 @@
         <v>338</v>
       </c>
       <c r="C37" s="159" t="s">
-        <v>1111</v>
+        <v>1069</v>
       </c>
       <c r="D37" s="98" t="s">
-        <v>1112</v>
+        <v>1070</v>
       </c>
       <c r="E37" s="168"/>
       <c r="F37" s="96"/>
@@ -56750,7 +56513,7 @@
         <v>337</v>
       </c>
       <c r="D38" s="98" t="s">
-        <v>354</v>
+        <v>353</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="96"/>
@@ -56768,10 +56531,10 @@
         <v>345</v>
       </c>
       <c r="C39" s="159" t="s">
-        <v>405</v>
+        <v>403</v>
       </c>
       <c r="D39" s="98" t="s">
-        <v>1113</v>
+        <v>1071</v>
       </c>
       <c r="E39" s="168"/>
       <c r="F39" s="96"/>
@@ -56789,10 +56552,10 @@
         <v>346</v>
       </c>
       <c r="C40" s="159" t="s">
-        <v>350</v>
+        <v>349</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>355</v>
+        <v>354</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="96"/>
@@ -56807,13 +56570,13 @@
         <v>[Create Edit Project-31]</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>347</v>
+        <v>1072</v>
       </c>
       <c r="C41" s="159" t="s">
-        <v>351</v>
+        <v>1073</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>356</v>
+        <v>1074</v>
       </c>
       <c r="E41" s="168"/>
       <c r="F41" s="96"/>
@@ -56828,13 +56591,13 @@
         <v>[Create Edit Project-32]</v>
       </c>
       <c r="B42" s="98" t="s">
-        <v>1114</v>
+        <v>347</v>
       </c>
       <c r="C42" s="159" t="s">
-        <v>1115</v>
+        <v>352</v>
       </c>
       <c r="D42" s="98" t="s">
-        <v>1116</v>
+        <v>1075</v>
       </c>
       <c r="E42" s="168"/>
       <c r="F42" s="96"/>
@@ -56848,14 +56611,14 @@
         <f t="shared" si="2"/>
         <v>[Create Edit Project-33]</v>
       </c>
-      <c r="B43" s="98" t="s">
-        <v>348</v>
+      <c r="B43" s="111" t="s">
+        <v>343</v>
       </c>
       <c r="C43" s="159" t="s">
-        <v>353</v>
+        <v>355</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>1117</v>
+        <v>1076</v>
       </c>
       <c r="E43" s="168"/>
       <c r="F43" s="96"/>
@@ -56870,13 +56633,13 @@
         <v>[Create Edit Project-34]</v>
       </c>
       <c r="B44" s="111" t="s">
-        <v>343</v>
+        <v>356</v>
       </c>
       <c r="C44" s="159" t="s">
         <v>357</v>
       </c>
       <c r="D44" s="98" t="s">
-        <v>1118</v>
+        <v>358</v>
       </c>
       <c r="E44" s="168"/>
       <c r="F44" s="96"/>
@@ -56891,13 +56654,13 @@
         <v>[Create Edit Project-35]</v>
       </c>
       <c r="B45" s="111" t="s">
-        <v>358</v>
+        <v>1077</v>
       </c>
       <c r="C45" s="159" t="s">
-        <v>359</v>
+        <v>1078</v>
       </c>
       <c r="D45" s="98" t="s">
-        <v>360</v>
+        <v>1079</v>
       </c>
       <c r="E45" s="168"/>
       <c r="F45" s="96"/>
@@ -56912,13 +56675,13 @@
         <v>[Create Edit Project-36]</v>
       </c>
       <c r="B46" s="111" t="s">
-        <v>1119</v>
-      </c>
-      <c r="C46" s="159" t="s">
-        <v>1120</v>
+        <v>359</v>
+      </c>
+      <c r="C46" s="165" t="s">
+        <v>360</v>
       </c>
       <c r="D46" s="98" t="s">
-        <v>1121</v>
+        <v>361</v>
       </c>
       <c r="E46" s="168"/>
       <c r="F46" s="96"/>
@@ -56928,18 +56691,18 @@
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A47" s="160" t="str">
+      <c r="A47" s="97" t="str">
         <f t="shared" si="2"/>
         <v>[Create Edit Project-37]</v>
       </c>
-      <c r="B47" s="111" t="s">
-        <v>361</v>
-      </c>
-      <c r="C47" s="165" t="s">
+      <c r="B47" s="96" t="s">
         <v>362</v>
       </c>
-      <c r="D47" s="98" t="s">
+      <c r="C47" s="164" t="s">
         <v>363</v>
+      </c>
+      <c r="D47" s="161" t="s">
+        <v>474</v>
       </c>
       <c r="E47" s="168"/>
       <c r="F47" s="96"/>
@@ -56949,18 +56712,18 @@
       <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A48" s="97" t="str">
+      <c r="A48" s="160" t="str">
         <f t="shared" si="2"/>
         <v>[Create Edit Project-38]</v>
       </c>
-      <c r="B48" s="96" t="s">
+      <c r="B48" s="111" t="s">
         <v>364</v>
       </c>
-      <c r="C48" s="164" t="s">
-        <v>365</v>
-      </c>
-      <c r="D48" s="161" t="s">
-        <v>476</v>
+      <c r="C48" s="159" t="s">
+        <v>368</v>
+      </c>
+      <c r="D48" s="98" t="s">
+        <v>375</v>
       </c>
       <c r="E48" s="168"/>
       <c r="F48" s="96"/>
@@ -56975,13 +56738,13 @@
         <v>[Create Edit Project-39]</v>
       </c>
       <c r="B49" s="111" t="s">
-        <v>366</v>
+        <v>369</v>
       </c>
       <c r="C49" s="159" t="s">
-        <v>370</v>
+        <v>367</v>
       </c>
       <c r="D49" s="98" t="s">
-        <v>377</v>
+        <v>475</v>
       </c>
       <c r="E49" s="168"/>
       <c r="F49" s="96"/>
@@ -56996,13 +56759,13 @@
         <v>[Create Edit Project-40]</v>
       </c>
       <c r="B50" s="111" t="s">
-        <v>371</v>
-      </c>
-      <c r="C50" s="159" t="s">
-        <v>369</v>
+        <v>365</v>
+      </c>
+      <c r="C50" s="165" t="s">
+        <v>376</v>
       </c>
       <c r="D50" s="98" t="s">
-        <v>477</v>
+        <v>377</v>
       </c>
       <c r="E50" s="168"/>
       <c r="F50" s="96"/>
@@ -57012,18 +56775,18 @@
       <c r="J50" s="90"/>
     </row>
     <row r="51" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A51" s="160" t="str">
+      <c r="A51" s="97" t="str">
         <f t="shared" si="2"/>
         <v>[Create Edit Project-41]</v>
       </c>
-      <c r="B51" s="111" t="s">
-        <v>367</v>
-      </c>
-      <c r="C51" s="165" t="s">
+      <c r="B51" s="96" t="s">
+        <v>366</v>
+      </c>
+      <c r="C51" s="164" t="s">
         <v>378</v>
       </c>
-      <c r="D51" s="98" t="s">
-        <v>379</v>
+      <c r="D51" s="161" t="s">
+        <v>476</v>
       </c>
       <c r="E51" s="168"/>
       <c r="F51" s="96"/>
@@ -57037,14 +56800,14 @@
         <f t="shared" si="2"/>
         <v>[Create Edit Project-42]</v>
       </c>
-      <c r="B52" s="96" t="s">
-        <v>368</v>
+      <c r="B52" s="98" t="s">
+        <v>380</v>
       </c>
       <c r="C52" s="164" t="s">
-        <v>380</v>
+        <v>381</v>
       </c>
       <c r="D52" s="161" t="s">
-        <v>478</v>
+        <v>393</v>
       </c>
       <c r="E52" s="168"/>
       <c r="F52" s="96"/>
@@ -57055,17 +56818,17 @@
     </row>
     <row r="53" spans="1:10" ht="14.25" customHeight="1">
       <c r="A53" s="97" t="str">
-        <f t="shared" si="2"/>
+        <f>IF(OR(B53&lt;&gt;"",D53&lt;E51&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-43]</v>
       </c>
       <c r="B53" s="98" t="s">
+        <v>386</v>
+      </c>
+      <c r="C53" s="164" t="s">
         <v>382</v>
       </c>
-      <c r="C53" s="164" t="s">
+      <c r="D53" s="161" t="s">
         <v>383</v>
-      </c>
-      <c r="D53" s="161" t="s">
-        <v>395</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="96"/>
@@ -57080,13 +56843,13 @@
         <v>[Create Edit Project-44]</v>
       </c>
       <c r="B54" s="98" t="s">
-        <v>388</v>
+        <v>394</v>
       </c>
       <c r="C54" s="164" t="s">
-        <v>384</v>
+        <v>395</v>
       </c>
       <c r="D54" s="161" t="s">
-        <v>385</v>
+        <v>396</v>
       </c>
       <c r="E54" s="168"/>
       <c r="F54" s="96"/>
@@ -57097,17 +56860,17 @@
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
       <c r="A55" s="97" t="str">
-        <f>IF(OR(B55&lt;&gt;"",D55&lt;E53&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A55:A61" si="3">IF(OR(B55&lt;&gt;"",D55&lt;E54&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-45]</v>
       </c>
       <c r="B55" s="98" t="s">
-        <v>396</v>
+        <v>385</v>
       </c>
       <c r="C55" s="164" t="s">
-        <v>397</v>
+        <v>384</v>
       </c>
       <c r="D55" s="161" t="s">
-        <v>398</v>
+        <v>392</v>
       </c>
       <c r="E55" s="168"/>
       <c r="F55" s="96"/>
@@ -57118,17 +56881,17 @@
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1">
       <c r="A56" s="97" t="str">
-        <f t="shared" ref="A56:A62" si="3">IF(OR(B56&lt;&gt;"",D56&lt;E55&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="3"/>
         <v>[Create Edit Project-46]</v>
       </c>
-      <c r="B56" s="98" t="s">
+      <c r="B56" s="111" t="s">
         <v>387</v>
       </c>
-      <c r="C56" s="164" t="s">
-        <v>386</v>
-      </c>
-      <c r="D56" s="161" t="s">
-        <v>394</v>
+      <c r="C56" s="165" t="s">
+        <v>390</v>
+      </c>
+      <c r="D56" s="98" t="s">
+        <v>408</v>
       </c>
       <c r="E56" s="168"/>
       <c r="F56" s="96"/>
@@ -57143,13 +56906,13 @@
         <v>[Create Edit Project-47]</v>
       </c>
       <c r="B57" s="111" t="s">
-        <v>389</v>
+        <v>388</v>
       </c>
       <c r="C57" s="165" t="s">
-        <v>392</v>
+        <v>391</v>
       </c>
       <c r="D57" s="98" t="s">
-        <v>410</v>
+        <v>409</v>
       </c>
       <c r="E57" s="168"/>
       <c r="F57" s="96"/>
@@ -57159,45 +56922,45 @@
       <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A58" s="97" t="str">
+      <c r="A58" s="171" t="str">
         <f t="shared" si="3"/>
         <v>[Create Edit Project-48]</v>
       </c>
-      <c r="B58" s="111" t="s">
-        <v>390</v>
-      </c>
-      <c r="C58" s="165" t="s">
-        <v>393</v>
-      </c>
-      <c r="D58" s="98" t="s">
-        <v>411</v>
-      </c>
-      <c r="E58" s="168"/>
+      <c r="B58" s="96" t="s">
+        <v>389</v>
+      </c>
+      <c r="C58" s="164" t="s">
+        <v>1080</v>
+      </c>
+      <c r="D58" s="161" t="s">
+        <v>1081</v>
+      </c>
+      <c r="E58" s="172"/>
       <c r="F58" s="96"/>
       <c r="G58" s="98"/>
       <c r="H58" s="198"/>
-      <c r="I58" s="168"/>
+      <c r="I58" s="172"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A59" s="171" t="str">
+      <c r="A59" s="97" t="str">
         <f t="shared" si="3"/>
         <v>[Create Edit Project-49]</v>
       </c>
-      <c r="B59" s="96" t="s">
-        <v>391</v>
-      </c>
-      <c r="C59" s="164" t="s">
-        <v>1122</v>
-      </c>
-      <c r="D59" s="161" t="s">
-        <v>1123</v>
-      </c>
-      <c r="E59" s="172"/>
+      <c r="B59" s="98" t="s">
+        <v>398</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>410</v>
+      </c>
+      <c r="E59" s="168"/>
       <c r="F59" s="96"/>
       <c r="G59" s="98"/>
       <c r="H59" s="198"/>
-      <c r="I59" s="172"/>
+      <c r="I59" s="168"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
@@ -57206,13 +56969,13 @@
         <v>[Create Edit Project-50]</v>
       </c>
       <c r="B60" s="98" t="s">
+        <v>399</v>
+      </c>
+      <c r="C60" s="98" t="s">
+        <v>397</v>
+      </c>
+      <c r="D60" s="98" t="s">
         <v>400</v>
-      </c>
-      <c r="C60" s="98" t="s">
-        <v>399</v>
-      </c>
-      <c r="D60" s="98" t="s">
-        <v>412</v>
       </c>
       <c r="E60" s="168"/>
       <c r="F60" s="96"/>
@@ -57227,13 +56990,13 @@
         <v>[Create Edit Project-51]</v>
       </c>
       <c r="B61" s="98" t="s">
-        <v>401</v>
+        <v>402</v>
       </c>
       <c r="C61" s="98" t="s">
-        <v>399</v>
+        <v>403</v>
       </c>
       <c r="D61" s="98" t="s">
-        <v>402</v>
+        <v>1082</v>
       </c>
       <c r="E61" s="168"/>
       <c r="F61" s="96"/>
@@ -57244,17 +57007,17 @@
     </row>
     <row r="62" spans="1:10" ht="14.25" customHeight="1">
       <c r="A62" s="97" t="str">
-        <f t="shared" si="3"/>
+        <f>IF(OR(B62&lt;&gt;"",D62&lt;E60&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-52]</v>
       </c>
       <c r="B62" s="98" t="s">
-        <v>404</v>
+        <v>1083</v>
       </c>
       <c r="C62" s="98" t="s">
-        <v>405</v>
+        <v>1084</v>
       </c>
       <c r="D62" s="98" t="s">
-        <v>1124</v>
+        <v>1085</v>
       </c>
       <c r="E62" s="168"/>
       <c r="F62" s="96"/>
@@ -57269,13 +57032,13 @@
         <v>[Create Edit Project-53]</v>
       </c>
       <c r="B63" s="98" t="s">
-        <v>1125</v>
+        <v>1086</v>
       </c>
       <c r="C63" s="98" t="s">
-        <v>1126</v>
+        <v>1087</v>
       </c>
       <c r="D63" s="98" t="s">
-        <v>1127</v>
+        <v>1088</v>
       </c>
       <c r="E63" s="168"/>
       <c r="F63" s="96"/>
@@ -57286,17 +57049,17 @@
     </row>
     <row r="64" spans="1:10" ht="14.25" customHeight="1">
       <c r="A64" s="97" t="str">
-        <f>IF(OR(B64&lt;&gt;"",D64&lt;E62&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B64&lt;&gt;"",D64&lt;E61&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-54]</v>
       </c>
-      <c r="B64" s="98" t="s">
-        <v>1128</v>
-      </c>
-      <c r="C64" s="98" t="s">
-        <v>1129</v>
+      <c r="B64" s="111" t="s">
+        <v>404</v>
+      </c>
+      <c r="C64" s="165" t="s">
+        <v>405</v>
       </c>
       <c r="D64" s="98" t="s">
-        <v>1130</v>
+        <v>411</v>
       </c>
       <c r="E64" s="168"/>
       <c r="F64" s="96"/>
@@ -57307,17 +57070,17 @@
     </row>
     <row r="65" spans="1:10" ht="14.25" customHeight="1">
       <c r="A65" s="97" t="str">
-        <f>IF(OR(B65&lt;&gt;"",D65&lt;E62&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B65&lt;&gt;"",D65&lt;E64&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-55]</v>
       </c>
       <c r="B65" s="111" t="s">
         <v>406</v>
       </c>
-      <c r="C65" s="165" t="s">
+      <c r="C65" s="98" t="s">
         <v>407</v>
       </c>
       <c r="D65" s="98" t="s">
-        <v>413</v>
+        <v>412</v>
       </c>
       <c r="E65" s="168"/>
       <c r="F65" s="96"/>
@@ -57332,13 +57095,13 @@
         <v>[Create Edit Project-56]</v>
       </c>
       <c r="B66" s="111" t="s">
-        <v>408</v>
+        <v>413</v>
       </c>
       <c r="C66" s="98" t="s">
-        <v>409</v>
+        <v>414</v>
       </c>
       <c r="D66" s="98" t="s">
-        <v>414</v>
+        <v>415</v>
       </c>
       <c r="E66" s="168"/>
       <c r="F66" s="96"/>
@@ -57349,17 +57112,17 @@
     </row>
     <row r="67" spans="1:10" ht="14.25" customHeight="1">
       <c r="A67" s="97" t="str">
-        <f>IF(OR(B67&lt;&gt;"",D67&lt;E66&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B67&lt;&gt;"",D67&lt;E65&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-57]</v>
       </c>
-      <c r="B67" s="111" t="s">
-        <v>415</v>
+      <c r="B67" s="98" t="s">
+        <v>1089</v>
       </c>
       <c r="C67" s="98" t="s">
-        <v>416</v>
+        <v>1090</v>
       </c>
       <c r="D67" s="98" t="s">
-        <v>417</v>
+        <v>1091</v>
       </c>
       <c r="E67" s="168"/>
       <c r="F67" s="96"/>
@@ -57374,13 +57137,13 @@
         <v>[Create Edit Project-58]</v>
       </c>
       <c r="B68" s="98" t="s">
-        <v>1131</v>
+        <v>1092</v>
       </c>
       <c r="C68" s="98" t="s">
-        <v>1132</v>
+        <v>1093</v>
       </c>
       <c r="D68" s="98" t="s">
-        <v>1133</v>
+        <v>1094</v>
       </c>
       <c r="E68" s="168"/>
       <c r="F68" s="96"/>
@@ -57395,16 +57158,16 @@
         <v>[Create Edit Project-59]</v>
       </c>
       <c r="B69" s="98" t="s">
-        <v>1134</v>
+        <v>1095</v>
       </c>
       <c r="C69" s="98" t="s">
-        <v>1135</v>
+        <v>1096</v>
       </c>
       <c r="D69" s="98" t="s">
-        <v>1136</v>
+        <v>1097</v>
       </c>
       <c r="E69" s="168"/>
-      <c r="F69" s="96"/>
+      <c r="F69" s="208"/>
       <c r="G69" s="98"/>
       <c r="H69" s="198"/>
       <c r="I69" s="168"/>
@@ -57416,16 +57179,16 @@
         <v>[Create Edit Project-60]</v>
       </c>
       <c r="B70" s="98" t="s">
-        <v>1137</v>
+        <v>1098</v>
       </c>
       <c r="C70" s="98" t="s">
-        <v>1138</v>
+        <v>1099</v>
       </c>
       <c r="D70" s="98" t="s">
-        <v>1139</v>
+        <v>1100</v>
       </c>
       <c r="E70" s="168"/>
-      <c r="F70" s="208"/>
+      <c r="F70" s="207"/>
       <c r="G70" s="98"/>
       <c r="H70" s="198"/>
       <c r="I70" s="168"/>
@@ -57433,20 +57196,20 @@
     </row>
     <row r="71" spans="1:10" ht="14.25" customHeight="1">
       <c r="A71" s="97" t="str">
-        <f>IF(OR(B71&lt;&gt;"",D71&lt;E69&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B71&lt;&gt;"",D71&lt;E66&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-61]</v>
       </c>
-      <c r="B71" s="98" t="s">
-        <v>1140</v>
+      <c r="B71" s="111" t="s">
+        <v>416</v>
       </c>
       <c r="C71" s="98" t="s">
-        <v>1141</v>
+        <v>417</v>
       </c>
       <c r="D71" s="98" t="s">
-        <v>1142</v>
+        <v>418</v>
       </c>
       <c r="E71" s="168"/>
-      <c r="F71" s="207"/>
+      <c r="F71" s="96"/>
       <c r="G71" s="98"/>
       <c r="H71" s="198"/>
       <c r="I71" s="168"/>
@@ -57454,17 +57217,17 @@
     </row>
     <row r="72" spans="1:10" ht="14.25" customHeight="1">
       <c r="A72" s="97" t="str">
-        <f>IF(OR(B72&lt;&gt;"",D72&lt;E67&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A72:A83" si="4">IF(OR(B72&lt;&gt;"",D72&lt;E71&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-62]</v>
       </c>
       <c r="B72" s="111" t="s">
-        <v>418</v>
+        <v>419</v>
       </c>
       <c r="C72" s="98" t="s">
-        <v>419</v>
+        <v>420</v>
       </c>
       <c r="D72" s="98" t="s">
-        <v>420</v>
+        <v>421</v>
       </c>
       <c r="E72" s="168"/>
       <c r="F72" s="96"/>
@@ -57475,17 +57238,17 @@
     </row>
     <row r="73" spans="1:10" ht="14.25" customHeight="1">
       <c r="A73" s="97" t="str">
-        <f t="shared" ref="A73:A84" si="4">IF(OR(B73&lt;&gt;"",D73&lt;E72&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="4"/>
         <v>[Create Edit Project-63]</v>
       </c>
       <c r="B73" s="111" t="s">
-        <v>421</v>
+        <v>422</v>
       </c>
       <c r="C73" s="98" t="s">
-        <v>422</v>
+        <v>423</v>
       </c>
       <c r="D73" s="98" t="s">
-        <v>423</v>
+        <v>424</v>
       </c>
       <c r="E73" s="168"/>
       <c r="F73" s="96"/>
@@ -57499,14 +57262,14 @@
         <f t="shared" si="4"/>
         <v>[Create Edit Project-64]</v>
       </c>
-      <c r="B74" s="111" t="s">
-        <v>424</v>
+      <c r="B74" s="98" t="s">
+        <v>425</v>
       </c>
       <c r="C74" s="98" t="s">
-        <v>425</v>
+        <v>426</v>
       </c>
       <c r="D74" s="98" t="s">
-        <v>426</v>
+        <v>428</v>
       </c>
       <c r="E74" s="168"/>
       <c r="F74" s="96"/>
@@ -57521,13 +57284,13 @@
         <v>[Create Edit Project-65]</v>
       </c>
       <c r="B75" s="98" t="s">
+        <v>401</v>
+      </c>
+      <c r="C75" s="98" t="s">
         <v>427</v>
       </c>
-      <c r="C75" s="98" t="s">
-        <v>428</v>
-      </c>
       <c r="D75" s="98" t="s">
-        <v>430</v>
+        <v>429</v>
       </c>
       <c r="E75" s="168"/>
       <c r="F75" s="96"/>
@@ -57537,18 +57300,18 @@
       <c r="J75" s="90"/>
     </row>
     <row r="76" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A76" s="97" t="str">
+      <c r="A76" s="160" t="str">
         <f t="shared" si="4"/>
         <v>[Create Edit Project-66]</v>
       </c>
-      <c r="B76" s="98" t="s">
-        <v>403</v>
-      </c>
-      <c r="C76" s="98" t="s">
-        <v>429</v>
+      <c r="B76" s="111" t="s">
+        <v>430</v>
+      </c>
+      <c r="C76" s="159" t="s">
+        <v>1101</v>
       </c>
       <c r="D76" s="98" t="s">
-        <v>431</v>
+        <v>1102</v>
       </c>
       <c r="E76" s="168"/>
       <c r="F76" s="96"/>
@@ -57563,13 +57326,13 @@
         <v>[Create Edit Project-67]</v>
       </c>
       <c r="B77" s="111" t="s">
-        <v>432</v>
+        <v>431</v>
       </c>
       <c r="C77" s="159" t="s">
-        <v>1143</v>
+        <v>436</v>
       </c>
       <c r="D77" s="98" t="s">
-        <v>1144</v>
+        <v>437</v>
       </c>
       <c r="E77" s="168"/>
       <c r="F77" s="96"/>
@@ -57583,14 +57346,14 @@
         <f t="shared" si="4"/>
         <v>[Create Edit Project-68]</v>
       </c>
-      <c r="B78" s="111" t="s">
-        <v>433</v>
-      </c>
-      <c r="C78" s="159" t="s">
-        <v>438</v>
-      </c>
-      <c r="D78" s="98" t="s">
-        <v>439</v>
+      <c r="B78" s="96" t="s">
+        <v>432</v>
+      </c>
+      <c r="C78" s="158" t="s">
+        <v>1103</v>
+      </c>
+      <c r="D78" s="161" t="s">
+        <v>1104</v>
       </c>
       <c r="E78" s="168"/>
       <c r="F78" s="96"/>
@@ -57600,7 +57363,7 @@
       <c r="J78" s="90"/>
     </row>
     <row r="79" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A79" s="160" t="str">
+      <c r="A79" s="97" t="str">
         <f t="shared" si="4"/>
         <v>[Create Edit Project-69]</v>
       </c>
@@ -57608,10 +57371,10 @@
         <v>434</v>
       </c>
       <c r="C79" s="158" t="s">
-        <v>1145</v>
+        <v>1103</v>
       </c>
       <c r="D79" s="161" t="s">
-        <v>1146</v>
+        <v>1105</v>
       </c>
       <c r="E79" s="168"/>
       <c r="F79" s="96"/>
@@ -57626,13 +57389,13 @@
         <v>[Create Edit Project-70]</v>
       </c>
       <c r="B80" s="96" t="s">
-        <v>436</v>
-      </c>
-      <c r="C80" s="158" t="s">
-        <v>1145</v>
-      </c>
-      <c r="D80" s="161" t="s">
-        <v>1147</v>
+        <v>435</v>
+      </c>
+      <c r="C80" s="96" t="s">
+        <v>441</v>
+      </c>
+      <c r="D80" s="96" t="s">
+        <v>477</v>
       </c>
       <c r="E80" s="168"/>
       <c r="F80" s="96"/>
@@ -57647,13 +57410,13 @@
         <v>[Create Edit Project-71]</v>
       </c>
       <c r="B81" s="96" t="s">
-        <v>437</v>
+        <v>439</v>
       </c>
       <c r="C81" s="96" t="s">
+        <v>438</v>
+      </c>
+      <c r="D81" s="96" t="s">
         <v>443</v>
-      </c>
-      <c r="D81" s="96" t="s">
-        <v>479</v>
       </c>
       <c r="E81" s="168"/>
       <c r="F81" s="96"/>
@@ -57668,13 +57431,13 @@
         <v>[Create Edit Project-72]</v>
       </c>
       <c r="B82" s="96" t="s">
-        <v>441</v>
+        <v>440</v>
       </c>
       <c r="C82" s="96" t="s">
-        <v>440</v>
+        <v>444</v>
       </c>
       <c r="D82" s="96" t="s">
-        <v>445</v>
+        <v>477</v>
       </c>
       <c r="E82" s="168"/>
       <c r="F82" s="96"/>
@@ -57688,14 +57451,14 @@
         <f t="shared" si="4"/>
         <v>[Create Edit Project-73]</v>
       </c>
-      <c r="B83" s="96" t="s">
-        <v>442</v>
-      </c>
-      <c r="C83" s="96" t="s">
+      <c r="B83" s="98" t="s">
         <v>446</v>
       </c>
-      <c r="D83" s="96" t="s">
-        <v>479</v>
+      <c r="C83" s="158" t="s">
+        <v>445</v>
+      </c>
+      <c r="D83" s="161" t="s">
+        <v>449</v>
       </c>
       <c r="E83" s="168"/>
       <c r="F83" s="96"/>
@@ -57706,17 +57469,17 @@
     </row>
     <row r="84" spans="1:10" ht="14.25" customHeight="1">
       <c r="A84" s="97" t="str">
-        <f t="shared" si="4"/>
+        <f>IF(OR(B84&lt;&gt;"",D84&lt;E82&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-74]</v>
       </c>
       <c r="B84" s="98" t="s">
-        <v>448</v>
-      </c>
-      <c r="C84" s="158" t="s">
-        <v>447</v>
+        <v>450</v>
+      </c>
+      <c r="C84" s="164" t="s">
+        <v>454</v>
       </c>
       <c r="D84" s="161" t="s">
-        <v>451</v>
+        <v>459</v>
       </c>
       <c r="E84" s="168"/>
       <c r="F84" s="96"/>
@@ -57731,13 +57494,13 @@
         <v>[Create Edit Project-75]</v>
       </c>
       <c r="B85" s="98" t="s">
-        <v>452</v>
+        <v>450</v>
       </c>
       <c r="C85" s="164" t="s">
-        <v>456</v>
+        <v>451</v>
       </c>
       <c r="D85" s="161" t="s">
-        <v>461</v>
+        <v>460</v>
       </c>
       <c r="E85" s="168"/>
       <c r="F85" s="96"/>
@@ -57758,7 +57521,7 @@
         <v>453</v>
       </c>
       <c r="D86" s="161" t="s">
-        <v>462</v>
+        <v>461</v>
       </c>
       <c r="E86" s="168"/>
       <c r="F86" s="96"/>
@@ -57772,13 +57535,13 @@
         <f>IF(OR(B87&lt;&gt;"",D87&lt;E85&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-77]</v>
       </c>
-      <c r="B87" s="98" t="s">
-        <v>454</v>
-      </c>
-      <c r="C87" s="164" t="s">
+      <c r="B87" s="111" t="s">
         <v>455</v>
       </c>
-      <c r="D87" s="161" t="s">
+      <c r="C87" s="98" t="s">
+        <v>458</v>
+      </c>
+      <c r="D87" s="98" t="s">
         <v>463</v>
       </c>
       <c r="E87" s="168"/>
@@ -57790,17 +57553,17 @@
     </row>
     <row r="88" spans="1:10" ht="14.25" customHeight="1">
       <c r="A88" s="97" t="str">
-        <f>IF(OR(B88&lt;&gt;"",D88&lt;E86&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A88:A111" si="5">IF(OR(B88&lt;&gt;"",D88&lt;E87&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Create Edit Project-78]</v>
       </c>
       <c r="B88" s="111" t="s">
+        <v>456</v>
+      </c>
+      <c r="C88" s="98" t="s">
         <v>457</v>
       </c>
-      <c r="C88" s="98" t="s">
-        <v>460</v>
-      </c>
       <c r="D88" s="98" t="s">
-        <v>465</v>
+        <v>462</v>
       </c>
       <c r="E88" s="168"/>
       <c r="F88" s="96"/>
@@ -57811,17 +57574,17 @@
     </row>
     <row r="89" spans="1:10" ht="14.25" customHeight="1">
       <c r="A89" s="97" t="str">
-        <f t="shared" ref="A89:A126" si="5">IF(OR(B89&lt;&gt;"",D89&lt;E88&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="5"/>
         <v>[Create Edit Project-79]</v>
       </c>
       <c r="B89" s="111" t="s">
-        <v>458</v>
+        <v>464</v>
       </c>
       <c r="C89" s="98" t="s">
-        <v>459</v>
+        <v>465</v>
       </c>
       <c r="D89" s="98" t="s">
-        <v>464</v>
+        <v>466</v>
       </c>
       <c r="E89" s="168"/>
       <c r="F89" s="96"/>
@@ -57835,14 +57598,14 @@
         <f t="shared" si="5"/>
         <v>[Create Edit Project-80]</v>
       </c>
-      <c r="B90" s="111" t="s">
-        <v>466</v>
+      <c r="B90" s="98" t="s">
+        <v>467</v>
       </c>
       <c r="C90" s="98" t="s">
-        <v>467</v>
+        <v>469</v>
       </c>
       <c r="D90" s="98" t="s">
-        <v>468</v>
+        <v>472</v>
       </c>
       <c r="E90" s="168"/>
       <c r="F90" s="96"/>
@@ -57857,13 +57620,13 @@
         <v>[Create Edit Project-81]</v>
       </c>
       <c r="B91" s="98" t="s">
-        <v>469</v>
+        <v>468</v>
       </c>
       <c r="C91" s="98" t="s">
+        <v>470</v>
+      </c>
+      <c r="D91" s="98" t="s">
         <v>471</v>
-      </c>
-      <c r="D91" s="98" t="s">
-        <v>474</v>
       </c>
       <c r="E91" s="168"/>
       <c r="F91" s="96"/>
@@ -57878,13 +57641,13 @@
         <v>[Create Edit Project-82]</v>
       </c>
       <c r="B92" s="98" t="s">
-        <v>470</v>
-      </c>
-      <c r="C92" s="98" t="s">
-        <v>472</v>
-      </c>
-      <c r="D92" s="98" t="s">
-        <v>473</v>
+        <v>478</v>
+      </c>
+      <c r="C92" s="158" t="s">
+        <v>488</v>
+      </c>
+      <c r="D92" s="161" t="s">
+        <v>489</v>
       </c>
       <c r="E92" s="168"/>
       <c r="F92" s="96"/>
@@ -57899,13 +57662,13 @@
         <v>[Create Edit Project-83]</v>
       </c>
       <c r="B93" s="98" t="s">
-        <v>480</v>
+        <v>490</v>
       </c>
       <c r="C93" s="158" t="s">
-        <v>490</v>
+        <v>491</v>
       </c>
       <c r="D93" s="161" t="s">
-        <v>491</v>
+        <v>492</v>
       </c>
       <c r="E93" s="168"/>
       <c r="F93" s="96"/>
@@ -57919,14 +57682,14 @@
         <f t="shared" si="5"/>
         <v>[Create Edit Project-84]</v>
       </c>
-      <c r="B94" s="98" t="s">
-        <v>492</v>
-      </c>
-      <c r="C94" s="158" t="s">
-        <v>493</v>
-      </c>
-      <c r="D94" s="161" t="s">
+      <c r="B94" s="111" t="s">
         <v>494</v>
+      </c>
+      <c r="C94" s="98" t="s">
+        <v>497</v>
+      </c>
+      <c r="D94" s="98" t="s">
+        <v>500</v>
       </c>
       <c r="E94" s="168"/>
       <c r="F94" s="96"/>
@@ -57941,13 +57704,13 @@
         <v>[Create Edit Project-85]</v>
       </c>
       <c r="B95" s="111" t="s">
-        <v>496</v>
+        <v>495</v>
       </c>
       <c r="C95" s="98" t="s">
-        <v>499</v>
+        <v>498</v>
       </c>
       <c r="D95" s="98" t="s">
-        <v>502</v>
+        <v>501</v>
       </c>
       <c r="E95" s="168"/>
       <c r="F95" s="96"/>
@@ -57962,13 +57725,13 @@
         <v>[Create Edit Project-86]</v>
       </c>
       <c r="B96" s="111" t="s">
-        <v>497</v>
+        <v>496</v>
       </c>
       <c r="C96" s="98" t="s">
-        <v>500</v>
+        <v>499</v>
       </c>
       <c r="D96" s="98" t="s">
-        <v>503</v>
+        <v>502</v>
       </c>
       <c r="E96" s="168"/>
       <c r="F96" s="96"/>
@@ -57982,11 +57745,11 @@
         <f t="shared" si="5"/>
         <v>[Create Edit Project-87]</v>
       </c>
-      <c r="B97" s="111" t="s">
-        <v>498</v>
+      <c r="B97" s="98" t="s">
+        <v>493</v>
       </c>
       <c r="C97" s="98" t="s">
-        <v>501</v>
+        <v>507</v>
       </c>
       <c r="D97" s="98" t="s">
         <v>504</v>
@@ -58004,13 +57767,13 @@
         <v>[Create Edit Project-88]</v>
       </c>
       <c r="B98" s="98" t="s">
-        <v>495</v>
+        <v>503</v>
       </c>
       <c r="C98" s="98" t="s">
-        <v>509</v>
+        <v>506</v>
       </c>
       <c r="D98" s="98" t="s">
-        <v>506</v>
+        <v>505</v>
       </c>
       <c r="E98" s="168"/>
       <c r="F98" s="96"/>
@@ -58025,17 +57788,17 @@
         <v>[Create Edit Project-89]</v>
       </c>
       <c r="B99" s="98" t="s">
-        <v>505</v>
+        <v>508</v>
       </c>
       <c r="C99" s="98" t="s">
-        <v>508</v>
+        <v>337</v>
       </c>
       <c r="D99" s="98" t="s">
-        <v>507</v>
+        <v>509</v>
       </c>
       <c r="E99" s="168"/>
       <c r="F99" s="96"/>
-      <c r="G99" s="98"/>
+      <c r="G99" s="96"/>
       <c r="H99" s="198"/>
       <c r="I99" s="168"/>
       <c r="J99" s="90"/>
@@ -58045,570 +57808,255 @@
         <f t="shared" si="5"/>
         <v>[Create Edit Project-90]</v>
       </c>
-      <c r="B100" s="96" t="s">
-        <v>528</v>
-      </c>
-      <c r="C100" s="96" t="s">
-        <v>525</v>
-      </c>
-      <c r="D100" s="96" t="s">
-        <v>526</v>
+      <c r="B100" s="98" t="s">
+        <v>510</v>
+      </c>
+      <c r="C100" s="98" t="s">
+        <v>348</v>
+      </c>
+      <c r="D100" s="98" t="s">
+        <v>512</v>
       </c>
       <c r="E100" s="168"/>
       <c r="F100" s="96"/>
-      <c r="G100" s="98"/>
+      <c r="G100" s="96"/>
       <c r="H100" s="198"/>
       <c r="I100" s="168"/>
       <c r="J100" s="90"/>
     </row>
     <row r="101" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A101" s="97" t="str">
+      <c r="A101" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-91]</v>
       </c>
-      <c r="B101" s="96" t="s">
-        <v>527</v>
-      </c>
-      <c r="C101" s="96" t="s">
-        <v>529</v>
-      </c>
-      <c r="D101" s="96" t="s">
-        <v>530</v>
+      <c r="B101" s="98" t="s">
+        <v>511</v>
+      </c>
+      <c r="C101" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D101" s="98" t="s">
+        <v>517</v>
       </c>
       <c r="E101" s="168"/>
       <c r="F101" s="96"/>
-      <c r="G101" s="98"/>
+      <c r="G101" s="96"/>
       <c r="H101" s="198"/>
       <c r="I101" s="168"/>
       <c r="J101" s="90"/>
     </row>
     <row r="102" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A102" s="97" t="str">
+      <c r="A102" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-92]</v>
       </c>
-      <c r="B102" s="96" t="s">
-        <v>532</v>
-      </c>
-      <c r="C102" s="96" t="s">
-        <v>531</v>
-      </c>
-      <c r="D102" s="96" t="s">
-        <v>526</v>
+      <c r="B102" s="98" t="s">
+        <v>513</v>
+      </c>
+      <c r="C102" s="98" t="s">
+        <v>351</v>
+      </c>
+      <c r="D102" s="98" t="s">
+        <v>516</v>
       </c>
       <c r="E102" s="168"/>
       <c r="F102" s="96"/>
-      <c r="G102" s="98"/>
+      <c r="G102" s="96"/>
       <c r="H102" s="198"/>
       <c r="I102" s="168"/>
       <c r="J102" s="90"/>
     </row>
     <row r="103" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A103" s="97" t="str">
+      <c r="A103" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-93]</v>
       </c>
       <c r="B103" s="98" t="s">
-        <v>510</v>
-      </c>
-      <c r="C103" s="158" t="s">
-        <v>516</v>
-      </c>
-      <c r="D103" s="161" t="s">
-        <v>519</v>
+        <v>514</v>
+      </c>
+      <c r="C103" s="98" t="s">
+        <v>352</v>
+      </c>
+      <c r="D103" s="98" t="s">
+        <v>518</v>
       </c>
       <c r="E103" s="168"/>
       <c r="F103" s="96"/>
-      <c r="G103" s="98"/>
+      <c r="G103" s="96"/>
       <c r="H103" s="198"/>
       <c r="I103" s="168"/>
       <c r="J103" s="90"/>
     </row>
     <row r="104" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A104" s="97" t="str">
+      <c r="A104" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-94]</v>
       </c>
       <c r="B104" s="98" t="s">
-        <v>511</v>
-      </c>
-      <c r="C104" s="164" t="s">
-        <v>456</v>
-      </c>
-      <c r="D104" s="161" t="s">
-        <v>520</v>
+        <v>515</v>
+      </c>
+      <c r="C104" s="98" t="s">
+        <v>350</v>
+      </c>
+      <c r="D104" s="98" t="s">
+        <v>519</v>
       </c>
       <c r="E104" s="168"/>
       <c r="F104" s="96"/>
-      <c r="G104" s="98"/>
+      <c r="G104" s="96"/>
       <c r="H104" s="198"/>
       <c r="I104" s="168"/>
       <c r="J104" s="90"/>
     </row>
     <row r="105" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A105" s="97" t="str">
+      <c r="A105" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-95]</v>
       </c>
       <c r="B105" s="98" t="s">
-        <v>511</v>
-      </c>
-      <c r="C105" s="164" t="s">
-        <v>517</v>
-      </c>
-      <c r="D105" s="161" t="s">
-        <v>521</v>
+        <v>520</v>
+      </c>
+      <c r="C105" s="98" t="s">
+        <v>337</v>
+      </c>
+      <c r="D105" s="98" t="s">
+        <v>526</v>
       </c>
       <c r="E105" s="168"/>
       <c r="F105" s="96"/>
-      <c r="G105" s="98"/>
+      <c r="G105" s="96"/>
       <c r="H105" s="198"/>
       <c r="I105" s="168"/>
       <c r="J105" s="90"/>
     </row>
     <row r="106" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A106" s="160" t="str">
+      <c r="A106" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-96]</v>
       </c>
-      <c r="B106" s="111" t="s">
-        <v>533</v>
-      </c>
-      <c r="C106" s="159" t="s">
-        <v>534</v>
+      <c r="B106" s="98" t="s">
+        <v>521</v>
+      </c>
+      <c r="C106" s="98" t="s">
+        <v>348</v>
       </c>
       <c r="D106" s="98" t="s">
-        <v>535</v>
+        <v>527</v>
       </c>
       <c r="E106" s="168"/>
       <c r="F106" s="96"/>
-      <c r="G106" s="98"/>
+      <c r="G106" s="96"/>
       <c r="H106" s="198"/>
       <c r="I106" s="168"/>
       <c r="J106" s="90"/>
     </row>
     <row r="107" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A107" s="160" t="str">
+      <c r="A107" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-97]</v>
       </c>
       <c r="B107" s="98" t="s">
-        <v>515</v>
-      </c>
-      <c r="C107" s="164" t="s">
-        <v>518</v>
-      </c>
-      <c r="D107" s="161" t="s">
         <v>522</v>
       </c>
-      <c r="E107" s="168"/>
+      <c r="C107" s="98" t="s">
+        <v>349</v>
+      </c>
+      <c r="D107" s="98" t="s">
+        <v>517</v>
+      </c>
+      <c r="E107" s="172"/>
       <c r="F107" s="96"/>
-      <c r="G107" s="98"/>
+      <c r="G107" s="96"/>
       <c r="H107" s="198"/>
       <c r="I107" s="168"/>
       <c r="J107" s="90"/>
     </row>
     <row r="108" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A108" s="97" t="str">
+      <c r="A108" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-98]</v>
       </c>
-      <c r="B108" s="111" t="s">
-        <v>539</v>
+      <c r="B108" s="98" t="s">
+        <v>523</v>
       </c>
       <c r="C108" s="98" t="s">
-        <v>536</v>
+        <v>351</v>
       </c>
       <c r="D108" s="98" t="s">
-        <v>523</v>
+        <v>516</v>
       </c>
       <c r="E108" s="168"/>
-      <c r="F108" s="96"/>
-      <c r="G108" s="98"/>
+      <c r="F108" s="98"/>
+      <c r="G108" s="96"/>
       <c r="H108" s="198"/>
       <c r="I108" s="168"/>
       <c r="J108" s="90"/>
     </row>
     <row r="109" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A109" s="97" t="str">
+      <c r="A109" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-99]</v>
       </c>
-      <c r="B109" s="111" t="s">
-        <v>538</v>
+      <c r="B109" s="98" t="s">
+        <v>524</v>
       </c>
       <c r="C109" s="98" t="s">
-        <v>537</v>
+        <v>352</v>
       </c>
       <c r="D109" s="98" t="s">
-        <v>524</v>
+        <v>518</v>
       </c>
       <c r="E109" s="168"/>
-      <c r="F109" s="96"/>
-      <c r="G109" s="98"/>
+      <c r="F109" s="98"/>
+      <c r="G109" s="96"/>
       <c r="H109" s="198"/>
       <c r="I109" s="168"/>
       <c r="J109" s="90"/>
     </row>
     <row r="110" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A110" s="97" t="str">
+      <c r="A110" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-100]</v>
       </c>
-      <c r="B110" s="111" t="s">
-        <v>514</v>
+      <c r="B110" s="98" t="s">
+        <v>525</v>
       </c>
       <c r="C110" s="98" t="s">
-        <v>540</v>
+        <v>350</v>
       </c>
       <c r="D110" s="98" t="s">
-        <v>541</v>
+        <v>519</v>
       </c>
       <c r="E110" s="168"/>
-      <c r="F110" s="96"/>
-      <c r="G110" s="98"/>
+      <c r="F110" s="98"/>
+      <c r="G110" s="96"/>
       <c r="H110" s="198"/>
       <c r="I110" s="168"/>
       <c r="J110" s="90"/>
     </row>
     <row r="111" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A111" s="97" t="str">
+      <c r="A111" s="174" t="str">
         <f t="shared" si="5"/>
         <v>[Create Edit Project-101]</v>
       </c>
       <c r="B111" s="98" t="s">
-        <v>513</v>
+        <v>529</v>
       </c>
       <c r="C111" s="98" t="s">
-        <v>542</v>
+        <v>528</v>
       </c>
       <c r="D111" s="98" t="s">
-        <v>543</v>
+        <v>530</v>
       </c>
       <c r="E111" s="168"/>
-      <c r="F111" s="96"/>
+      <c r="F111" s="98"/>
       <c r="G111" s="98"/>
       <c r="H111" s="198"/>
       <c r="I111" s="168"/>
       <c r="J111" s="90"/>
     </row>
-    <row r="112" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A112" s="97" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-102]</v>
-      </c>
-      <c r="B112" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="C112" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="D112" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="E112" s="168"/>
-      <c r="F112" s="96"/>
-      <c r="G112" s="98"/>
-      <c r="H112" s="198"/>
-      <c r="I112" s="168"/>
+    <row r="112" spans="1:10">
       <c r="J112" s="90"/>
-    </row>
-    <row r="113" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A113" s="97" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-103]</v>
-      </c>
-      <c r="B113" s="98" t="s">
-        <v>512</v>
-      </c>
-      <c r="C113" s="98" t="s">
-        <v>544</v>
-      </c>
-      <c r="D113" s="98" t="s">
-        <v>545</v>
-      </c>
-      <c r="E113" s="168"/>
-      <c r="F113" s="96"/>
-      <c r="G113" s="98"/>
-      <c r="H113" s="198"/>
-      <c r="I113" s="168"/>
-      <c r="J113" s="90"/>
-    </row>
-    <row r="114" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A114" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-104]</v>
-      </c>
-      <c r="B114" s="98" t="s">
-        <v>546</v>
-      </c>
-      <c r="C114" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="D114" s="98" t="s">
-        <v>547</v>
-      </c>
-      <c r="E114" s="168"/>
-      <c r="F114" s="96"/>
-      <c r="G114" s="96"/>
-      <c r="H114" s="198"/>
-      <c r="I114" s="168"/>
-      <c r="J114" s="90"/>
-    </row>
-    <row r="115" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A115" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-105]</v>
-      </c>
-      <c r="B115" s="98" t="s">
-        <v>548</v>
-      </c>
-      <c r="C115" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="D115" s="98" t="s">
-        <v>550</v>
-      </c>
-      <c r="E115" s="168"/>
-      <c r="F115" s="96"/>
-      <c r="G115" s="96"/>
-      <c r="H115" s="198"/>
-      <c r="I115" s="168"/>
-      <c r="J115" s="90"/>
-    </row>
-    <row r="116" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A116" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-106]</v>
-      </c>
-      <c r="B116" s="98" t="s">
-        <v>549</v>
-      </c>
-      <c r="C116" s="98" t="s">
-        <v>350</v>
-      </c>
-      <c r="D116" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="E116" s="168"/>
-      <c r="F116" s="96"/>
-      <c r="G116" s="96"/>
-      <c r="H116" s="198"/>
-      <c r="I116" s="168"/>
-      <c r="J116" s="90"/>
-    </row>
-    <row r="117" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A117" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-107]</v>
-      </c>
-      <c r="B117" s="98" t="s">
-        <v>551</v>
-      </c>
-      <c r="C117" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="D117" s="98" t="s">
-        <v>554</v>
-      </c>
-      <c r="E117" s="168"/>
-      <c r="F117" s="96"/>
-      <c r="G117" s="96"/>
-      <c r="H117" s="198"/>
-      <c r="I117" s="168"/>
-      <c r="J117" s="90"/>
-    </row>
-    <row r="118" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A118" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-108]</v>
-      </c>
-      <c r="B118" s="98" t="s">
-        <v>552</v>
-      </c>
-      <c r="C118" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="D118" s="98" t="s">
-        <v>556</v>
-      </c>
-      <c r="E118" s="168"/>
-      <c r="F118" s="96"/>
-      <c r="G118" s="96"/>
-      <c r="H118" s="198"/>
-      <c r="I118" s="168"/>
-      <c r="J118" s="90"/>
-    </row>
-    <row r="119" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A119" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-109]</v>
-      </c>
-      <c r="B119" s="98" t="s">
-        <v>553</v>
-      </c>
-      <c r="C119" s="98" t="s">
-        <v>351</v>
-      </c>
-      <c r="D119" s="98" t="s">
-        <v>557</v>
-      </c>
-      <c r="E119" s="168"/>
-      <c r="F119" s="96"/>
-      <c r="G119" s="96"/>
-      <c r="H119" s="198"/>
-      <c r="I119" s="168"/>
-      <c r="J119" s="90"/>
-    </row>
-    <row r="120" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A120" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-110]</v>
-      </c>
-      <c r="B120" s="98" t="s">
-        <v>558</v>
-      </c>
-      <c r="C120" s="98" t="s">
-        <v>337</v>
-      </c>
-      <c r="D120" s="98" t="s">
-        <v>564</v>
-      </c>
-      <c r="E120" s="168"/>
-      <c r="F120" s="96"/>
-      <c r="G120" s="96"/>
-      <c r="H120" s="198"/>
-      <c r="I120" s="168"/>
-      <c r="J120" s="90"/>
-    </row>
-    <row r="121" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A121" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-111]</v>
-      </c>
-      <c r="B121" s="98" t="s">
-        <v>559</v>
-      </c>
-      <c r="C121" s="98" t="s">
-        <v>349</v>
-      </c>
-      <c r="D121" s="98" t="s">
-        <v>565</v>
-      </c>
-      <c r="E121" s="168"/>
-      <c r="F121" s="96"/>
-      <c r="G121" s="96"/>
-      <c r="H121" s="198"/>
-      <c r="I121" s="168"/>
-      <c r="J121" s="90"/>
-    </row>
-    <row r="122" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A122" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-112]</v>
-      </c>
-      <c r="B122" s="98" t="s">
-        <v>560</v>
-      </c>
-      <c r="C122" s="98" t="s">
-        <v>350</v>
-      </c>
-      <c r="D122" s="98" t="s">
-        <v>555</v>
-      </c>
-      <c r="E122" s="172"/>
-      <c r="F122" s="96"/>
-      <c r="G122" s="96"/>
-      <c r="H122" s="198"/>
-      <c r="I122" s="168"/>
-      <c r="J122" s="90"/>
-    </row>
-    <row r="123" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A123" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-113]</v>
-      </c>
-      <c r="B123" s="98" t="s">
-        <v>561</v>
-      </c>
-      <c r="C123" s="98" t="s">
-        <v>352</v>
-      </c>
-      <c r="D123" s="98" t="s">
-        <v>554</v>
-      </c>
-      <c r="E123" s="168"/>
-      <c r="F123" s="98"/>
-      <c r="G123" s="96"/>
-      <c r="H123" s="198"/>
-      <c r="I123" s="168"/>
-      <c r="J123" s="90"/>
-    </row>
-    <row r="124" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A124" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-114]</v>
-      </c>
-      <c r="B124" s="98" t="s">
-        <v>562</v>
-      </c>
-      <c r="C124" s="98" t="s">
-        <v>353</v>
-      </c>
-      <c r="D124" s="98" t="s">
-        <v>556</v>
-      </c>
-      <c r="E124" s="168"/>
-      <c r="F124" s="98"/>
-      <c r="G124" s="96"/>
-      <c r="H124" s="198"/>
-      <c r="I124" s="168"/>
-      <c r="J124" s="90"/>
-    </row>
-    <row r="125" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A125" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-115]</v>
-      </c>
-      <c r="B125" s="98" t="s">
-        <v>563</v>
-      </c>
-      <c r="C125" s="98" t="s">
-        <v>351</v>
-      </c>
-      <c r="D125" s="98" t="s">
-        <v>557</v>
-      </c>
-      <c r="E125" s="168"/>
-      <c r="F125" s="98"/>
-      <c r="G125" s="96"/>
-      <c r="H125" s="198"/>
-      <c r="I125" s="168"/>
-      <c r="J125" s="90"/>
-    </row>
-    <row r="126" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A126" s="174" t="str">
-        <f t="shared" si="5"/>
-        <v>[Create Edit Project-116]</v>
-      </c>
-      <c r="B126" s="98" t="s">
-        <v>567</v>
-      </c>
-      <c r="C126" s="98" t="s">
-        <v>566</v>
-      </c>
-      <c r="D126" s="98" t="s">
-        <v>568</v>
-      </c>
-      <c r="E126" s="168"/>
-      <c r="F126" s="98"/>
-      <c r="G126" s="98"/>
-      <c r="H126" s="198"/>
-      <c r="I126" s="168"/>
-      <c r="J126" s="90"/>
-    </row>
-    <row r="127" spans="1:10">
-      <c r="J127" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -58619,7 +58067,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G23 F25:G126">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F12:G23 F25:G111">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
@@ -58634,10 +58082,10 @@
 
 <file path=xl/worksheets/sheet9.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:IW65"/>
+  <dimension ref="A1:IW62"/>
   <sheetViews>
-    <sheetView topLeftCell="A49" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
-      <selection activeCell="B8" sqref="A6:B8"/>
+    <sheetView topLeftCell="A31" zoomScale="70" zoomScaleNormal="70" workbookViewId="0">
+      <selection activeCell="A17" sqref="A17:XFD19"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="12.75"/>
@@ -58916,14 +58364,14 @@
       <c r="A2" s="46" t="s">
         <v>21</v>
       </c>
-      <c r="B2" s="221" t="s">
-        <v>572</v>
-      </c>
-      <c r="C2" s="221"/>
-      <c r="D2" s="221"/>
-      <c r="E2" s="221"/>
-      <c r="F2" s="221"/>
-      <c r="G2" s="221"/>
+      <c r="B2" s="240" t="s">
+        <v>534</v>
+      </c>
+      <c r="C2" s="240"/>
+      <c r="D2" s="240"/>
+      <c r="E2" s="240"/>
+      <c r="F2" s="240"/>
+      <c r="G2" s="240"/>
       <c r="H2" s="79"/>
       <c r="I2" s="78"/>
       <c r="J2" s="78" t="s">
@@ -59174,14 +58622,14 @@
       <c r="A3" s="47" t="s">
         <v>23</v>
       </c>
-      <c r="B3" s="221" t="s">
-        <v>573</v>
-      </c>
-      <c r="C3" s="221"/>
-      <c r="D3" s="221"/>
-      <c r="E3" s="221"/>
-      <c r="F3" s="221"/>
-      <c r="G3" s="221"/>
+      <c r="B3" s="240" t="s">
+        <v>535</v>
+      </c>
+      <c r="C3" s="240"/>
+      <c r="D3" s="240"/>
+      <c r="E3" s="240"/>
+      <c r="F3" s="240"/>
+      <c r="G3" s="240"/>
       <c r="H3" s="79"/>
       <c r="I3" s="78"/>
       <c r="J3" s="78" t="s">
@@ -59432,14 +58880,14 @@
       <c r="A4" s="46" t="s">
         <v>25</v>
       </c>
-      <c r="B4" s="222" t="s">
+      <c r="B4" s="241" t="s">
         <v>69</v>
       </c>
-      <c r="C4" s="222"/>
-      <c r="D4" s="222"/>
-      <c r="E4" s="222"/>
-      <c r="F4" s="222"/>
-      <c r="G4" s="222"/>
+      <c r="C4" s="241"/>
+      <c r="D4" s="241"/>
+      <c r="E4" s="241"/>
+      <c r="F4" s="241"/>
+      <c r="G4" s="241"/>
       <c r="H4" s="79"/>
       <c r="I4" s="78"/>
       <c r="J4" s="80"/>
@@ -59697,11 +59145,11 @@
       <c r="D5" s="83" t="s">
         <v>27</v>
       </c>
-      <c r="E5" s="223" t="s">
+      <c r="E5" s="242" t="s">
         <v>28</v>
       </c>
-      <c r="F5" s="223"/>
-      <c r="G5" s="223"/>
+      <c r="F5" s="242"/>
+      <c r="G5" s="242"/>
       <c r="H5" s="84"/>
       <c r="I5" s="78"/>
       <c r="J5" s="78" t="s">
@@ -59950,27 +59398,27 @@
     </row>
     <row r="6" spans="1:257" ht="13.5" thickBot="1">
       <c r="A6" s="86">
-        <f>COUNTIF(F12:G160,"Pass")</f>
+        <f>COUNTIF(F12:G157,"Pass")</f>
         <v>0</v>
       </c>
       <c r="B6" s="87">
-        <f>COUNTIF(F12:G160,"Fail")</f>
+        <f>COUNTIF(F12:G157,"Fail")</f>
         <v>0</v>
       </c>
       <c r="C6" s="87">
         <f>E6-D6-B6-A6</f>
-        <v>86</v>
+        <v>82</v>
       </c>
       <c r="D6" s="88">
-        <f>COUNTIF(F12:G160,"N/A")</f>
+        <f>COUNTIF(F12:G157,"N/A")</f>
         <v>0</v>
       </c>
-      <c r="E6" s="224">
-        <f>COUNTA(A12:A160)*2</f>
-        <v>86</v>
-      </c>
-      <c r="F6" s="224"/>
-      <c r="G6" s="224"/>
+      <c r="E6" s="243">
+        <f>COUNTA(A12:A157)*2</f>
+        <v>82</v>
+      </c>
+      <c r="F6" s="243"/>
+      <c r="G6" s="243"/>
       <c r="H6" s="84"/>
       <c r="I6" s="78"/>
       <c r="J6" s="78" t="s">
@@ -60997,10 +60445,10 @@
         <v>34</v>
       </c>
       <c r="F10" s="50" t="s">
-        <v>570</v>
+        <v>532</v>
       </c>
       <c r="G10" s="50" t="s">
-        <v>569</v>
+        <v>531</v>
       </c>
       <c r="H10" s="50" t="s">
         <v>35</v>
@@ -61253,7 +60701,7 @@
     <row r="11" spans="1:257" ht="14.25" customHeight="1">
       <c r="A11" s="51"/>
       <c r="B11" s="51" t="s">
-        <v>574</v>
+        <v>536</v>
       </c>
       <c r="C11" s="52"/>
       <c r="D11" s="52"/>
@@ -61510,13 +60958,13 @@
         <v>[Project Detail-2]</v>
       </c>
       <c r="B12" s="98" t="s">
-        <v>583</v>
+        <v>544</v>
       </c>
       <c r="C12" s="98" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="D12" s="111" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="E12" s="99"/>
       <c r="F12" s="111"/>
@@ -61527,17 +60975,17 @@
     </row>
     <row r="13" spans="1:257" ht="14.25" customHeight="1">
       <c r="A13" s="54" t="str">
-        <f t="shared" ref="A13:A59" si="0">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A13:A56" si="0">IF(OR(B13&lt;&gt;"",D13&lt;E12&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-3]</v>
       </c>
       <c r="B13" s="98" t="s">
-        <v>584</v>
+        <v>545</v>
       </c>
       <c r="C13" s="98" t="s">
-        <v>585</v>
+        <v>546</v>
       </c>
       <c r="D13" s="111" t="s">
-        <v>606</v>
+        <v>567</v>
       </c>
       <c r="E13" s="104"/>
       <c r="F13" s="111"/>
@@ -61552,13 +61000,13 @@
         <v>[Project Detail-4]</v>
       </c>
       <c r="B14" s="98" t="s">
-        <v>586</v>
+        <v>547</v>
       </c>
       <c r="C14" s="98" t="s">
-        <v>592</v>
+        <v>553</v>
       </c>
       <c r="D14" s="98" t="s">
-        <v>588</v>
+        <v>549</v>
       </c>
       <c r="E14" s="104"/>
       <c r="F14" s="111"/>
@@ -61573,13 +61021,13 @@
         <v>[Project Detail-5]</v>
       </c>
       <c r="B15" s="98" t="s">
-        <v>589</v>
+        <v>550</v>
       </c>
       <c r="C15" s="98" t="s">
-        <v>591</v>
+        <v>552</v>
       </c>
       <c r="D15" s="98" t="s">
-        <v>590</v>
+        <v>551</v>
       </c>
       <c r="E15" s="109"/>
       <c r="F15" s="111"/>
@@ -61594,13 +61042,13 @@
         <v>[Project Detail-6]</v>
       </c>
       <c r="B16" s="98" t="s">
-        <v>1194</v>
+        <v>1152</v>
       </c>
       <c r="C16" s="98" t="s">
-        <v>1195</v>
+        <v>1153</v>
       </c>
       <c r="D16" s="98" t="s">
-        <v>1196</v>
+        <v>1154</v>
       </c>
       <c r="E16" s="109"/>
       <c r="F16" s="111"/>
@@ -61612,7 +61060,7 @@
     <row r="17" spans="1:10" ht="14.25" customHeight="1">
       <c r="A17" s="167"/>
       <c r="B17" s="167" t="s">
-        <v>575</v>
+        <v>537</v>
       </c>
       <c r="C17" s="167"/>
       <c r="D17" s="167"/>
@@ -61629,13 +61077,13 @@
         <v>[Project Detail-8]</v>
       </c>
       <c r="B18" s="176" t="s">
-        <v>593</v>
+        <v>554</v>
       </c>
       <c r="C18" s="177" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="D18" s="177" t="s">
-        <v>596</v>
+        <v>557</v>
       </c>
       <c r="E18" s="176"/>
       <c r="F18" s="111"/>
@@ -61650,13 +61098,13 @@
         <v>[Project Detail-9]</v>
       </c>
       <c r="B19" s="176" t="s">
-        <v>594</v>
+        <v>555</v>
       </c>
       <c r="C19" s="177" t="s">
-        <v>595</v>
+        <v>556</v>
       </c>
       <c r="D19" s="177" t="s">
-        <v>600</v>
+        <v>561</v>
       </c>
       <c r="E19" s="176"/>
       <c r="F19" s="111"/>
@@ -61668,7 +61116,7 @@
     <row r="20" spans="1:10" ht="14.25" customHeight="1">
       <c r="A20" s="167"/>
       <c r="B20" s="167" t="s">
-        <v>576</v>
+        <v>538</v>
       </c>
       <c r="C20" s="167"/>
       <c r="D20" s="167"/>
@@ -61685,13 +61133,13 @@
         <v>[Project Detail-11]</v>
       </c>
       <c r="B21" s="176" t="s">
-        <v>597</v>
+        <v>558</v>
       </c>
       <c r="C21" s="177" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="D21" s="177" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="E21" s="168"/>
       <c r="F21" s="111"/>
@@ -61706,13 +61154,13 @@
         <v>[Project Detail-12]</v>
       </c>
       <c r="B22" s="176" t="s">
-        <v>598</v>
+        <v>559</v>
       </c>
       <c r="C22" s="177" t="s">
-        <v>599</v>
+        <v>560</v>
       </c>
       <c r="D22" s="177" t="s">
-        <v>601</v>
+        <v>562</v>
       </c>
       <c r="E22" s="168"/>
       <c r="F22" s="111"/>
@@ -61724,7 +61172,7 @@
     <row r="23" spans="1:10" ht="14.25" customHeight="1">
       <c r="A23" s="167"/>
       <c r="B23" s="167" t="s">
-        <v>577</v>
+        <v>539</v>
       </c>
       <c r="C23" s="167"/>
       <c r="D23" s="167"/>
@@ -61741,13 +61189,13 @@
         <v>[Project Detail-14]</v>
       </c>
       <c r="B24" s="176" t="s">
-        <v>602</v>
+        <v>563</v>
       </c>
       <c r="C24" s="177" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="D24" s="177" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="E24" s="168"/>
       <c r="F24" s="111"/>
@@ -61762,13 +61210,13 @@
         <v>[Project Detail-15]</v>
       </c>
       <c r="B25" s="176" t="s">
-        <v>603</v>
+        <v>564</v>
       </c>
       <c r="C25" s="177" t="s">
-        <v>604</v>
+        <v>565</v>
       </c>
       <c r="D25" s="177" t="s">
-        <v>605</v>
+        <v>566</v>
       </c>
       <c r="E25" s="168"/>
       <c r="F25" s="111"/>
@@ -61783,13 +61231,13 @@
         <v>[Project Detail-16]</v>
       </c>
       <c r="B26" s="98" t="s">
-        <v>607</v>
+        <v>568</v>
       </c>
       <c r="C26" s="177" t="s">
-        <v>627</v>
+        <v>585</v>
       </c>
       <c r="D26" s="177" t="s">
-        <v>610</v>
+        <v>571</v>
       </c>
       <c r="E26" s="168"/>
       <c r="F26" s="111"/>
@@ -61804,13 +61252,13 @@
         <v>[Project Detail-17]</v>
       </c>
       <c r="B27" s="98" t="s">
-        <v>608</v>
+        <v>569</v>
       </c>
       <c r="C27" s="177" t="s">
-        <v>628</v>
+        <v>586</v>
       </c>
       <c r="D27" s="177" t="s">
-        <v>611</v>
+        <v>572</v>
       </c>
       <c r="E27" s="168"/>
       <c r="F27" s="111"/>
@@ -61825,13 +61273,13 @@
         <v>[Project Detail-18]</v>
       </c>
       <c r="B28" s="98" t="s">
-        <v>609</v>
+        <v>570</v>
       </c>
       <c r="C28" s="177" t="s">
-        <v>629</v>
+        <v>587</v>
       </c>
       <c r="D28" s="177" t="s">
-        <v>612</v>
+        <v>573</v>
       </c>
       <c r="E28" s="168"/>
       <c r="F28" s="111"/>
@@ -61846,13 +61294,13 @@
         <v>[Project Detail-19]</v>
       </c>
       <c r="B29" s="98" t="s">
-        <v>613</v>
+        <v>574</v>
       </c>
       <c r="C29" s="177" t="s">
-        <v>614</v>
+        <v>575</v>
       </c>
       <c r="D29" s="177" t="s">
-        <v>616</v>
+        <v>577</v>
       </c>
       <c r="E29" s="168"/>
       <c r="F29" s="111"/>
@@ -61867,13 +61315,13 @@
         <v>[Project Detail-20]</v>
       </c>
       <c r="B30" s="111" t="s">
-        <v>617</v>
+        <v>578</v>
       </c>
       <c r="C30" s="165" t="s">
-        <v>618</v>
+        <v>579</v>
       </c>
       <c r="D30" s="98" t="s">
-        <v>619</v>
+        <v>580</v>
       </c>
       <c r="E30" s="168"/>
       <c r="F30" s="111"/>
@@ -61888,13 +61336,13 @@
         <v>[Project Detail-21]</v>
       </c>
       <c r="B31" s="161" t="s">
-        <v>623</v>
+        <v>581</v>
       </c>
       <c r="C31" s="177" t="s">
-        <v>624</v>
+        <v>582</v>
       </c>
       <c r="D31" s="177" t="s">
-        <v>626</v>
+        <v>584</v>
       </c>
       <c r="E31" s="168"/>
       <c r="F31" s="111"/>
@@ -61909,13 +61357,13 @@
         <v>[Project Detail-22]</v>
       </c>
       <c r="B32" s="98" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="C32" s="177" t="s">
-        <v>632</v>
+        <v>590</v>
       </c>
       <c r="D32" s="177" t="s">
-        <v>630</v>
+        <v>588</v>
       </c>
       <c r="E32" s="168"/>
       <c r="F32" s="111"/>
@@ -61930,13 +61378,13 @@
         <v>[Project Detail-23]</v>
       </c>
       <c r="B33" s="98" t="s">
-        <v>625</v>
+        <v>583</v>
       </c>
       <c r="C33" s="177" t="s">
-        <v>631</v>
+        <v>589</v>
       </c>
       <c r="D33" s="177" t="s">
-        <v>633</v>
+        <v>591</v>
       </c>
       <c r="E33" s="168"/>
       <c r="F33" s="111"/>
@@ -61951,13 +61399,13 @@
         <v>[Project Detail-24]</v>
       </c>
       <c r="B34" s="161" t="s">
-        <v>634</v>
+        <v>592</v>
       </c>
       <c r="C34" s="177" t="s">
-        <v>636</v>
+        <v>594</v>
       </c>
       <c r="D34" s="177" t="s">
-        <v>637</v>
+        <v>595</v>
       </c>
       <c r="E34" s="168"/>
       <c r="F34" s="111"/>
@@ -61972,13 +61420,13 @@
         <v>[Project Detail-25]</v>
       </c>
       <c r="B35" s="161" t="s">
-        <v>635</v>
+        <v>593</v>
       </c>
       <c r="C35" s="177" t="s">
-        <v>638</v>
+        <v>596</v>
       </c>
       <c r="D35" s="177" t="s">
-        <v>639</v>
+        <v>597</v>
       </c>
       <c r="E35" s="168"/>
       <c r="F35" s="111"/>
@@ -61990,7 +61438,7 @@
     <row r="36" spans="1:10" ht="14.25" customHeight="1">
       <c r="A36" s="167"/>
       <c r="B36" s="167" t="s">
-        <v>578</v>
+        <v>541</v>
       </c>
       <c r="C36" s="167"/>
       <c r="D36" s="167"/>
@@ -62003,17 +61451,17 @@
     </row>
     <row r="37" spans="1:10" ht="14.25" customHeight="1">
       <c r="A37" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B37&lt;&gt;"",D37&lt;E36&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-27]</v>
       </c>
-      <c r="B37" s="176" t="s">
-        <v>620</v>
-      </c>
-      <c r="C37" s="177" t="s">
-        <v>621</v>
-      </c>
-      <c r="D37" s="177" t="s">
-        <v>622</v>
+      <c r="B37" s="98" t="s">
+        <v>600</v>
+      </c>
+      <c r="C37" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D37" s="98" t="s">
+        <v>602</v>
       </c>
       <c r="E37" s="168"/>
       <c r="F37" s="111"/>
@@ -62024,17 +61472,17 @@
     </row>
     <row r="38" spans="1:10" ht="14.25" customHeight="1">
       <c r="A38" s="54" t="str">
-        <f t="shared" si="0"/>
+        <f>IF(OR(B38&lt;&gt;"",D38&lt;E37&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-28]</v>
       </c>
-      <c r="B38" s="176" t="s">
-        <v>620</v>
-      </c>
-      <c r="C38" s="177" t="s">
-        <v>621</v>
-      </c>
-      <c r="D38" s="177" t="s">
-        <v>622</v>
+      <c r="B38" s="98" t="s">
+        <v>601</v>
+      </c>
+      <c r="C38" s="98" t="s">
+        <v>548</v>
+      </c>
+      <c r="D38" s="98" t="s">
+        <v>604</v>
       </c>
       <c r="E38" s="168"/>
       <c r="F38" s="111"/>
@@ -62044,32 +61492,39 @@
       <c r="J38" s="90"/>
     </row>
     <row r="39" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A39" s="167"/>
-      <c r="B39" s="167" t="s">
-        <v>580</v>
-      </c>
-      <c r="C39" s="167"/>
-      <c r="D39" s="167"/>
-      <c r="E39" s="167"/>
-      <c r="F39" s="167"/>
-      <c r="G39" s="167"/>
-      <c r="H39" s="167"/>
-      <c r="I39" s="167"/>
+      <c r="A39" s="54" t="str">
+        <f>IF(OR(B39&lt;&gt;"",D39&lt;E37&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Project Detail-29]</v>
+      </c>
+      <c r="B39" s="98" t="s">
+        <v>599</v>
+      </c>
+      <c r="C39" s="98" t="s">
+        <v>603</v>
+      </c>
+      <c r="D39" s="98" t="s">
+        <v>549</v>
+      </c>
+      <c r="E39" s="168"/>
+      <c r="F39" s="111"/>
+      <c r="G39" s="111"/>
+      <c r="H39" s="169"/>
+      <c r="I39" s="168"/>
       <c r="J39" s="90"/>
     </row>
     <row r="40" spans="1:10" ht="14.25" customHeight="1">
       <c r="A40" s="54" t="str">
-        <f>IF(OR(B40&lt;&gt;"",D40&lt;E39&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B40&lt;&gt;"",D40&lt;E37&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-30]</v>
       </c>
       <c r="B40" s="98" t="s">
-        <v>642</v>
+        <v>598</v>
       </c>
       <c r="C40" s="98" t="s">
-        <v>587</v>
+        <v>605</v>
       </c>
       <c r="D40" s="98" t="s">
-        <v>644</v>
+        <v>606</v>
       </c>
       <c r="E40" s="168"/>
       <c r="F40" s="111"/>
@@ -62080,17 +61535,17 @@
     </row>
     <row r="41" spans="1:10" ht="14.25" customHeight="1">
       <c r="A41" s="54" t="str">
-        <f>IF(OR(B41&lt;&gt;"",D41&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f>IF(OR(B41&lt;&gt;"",D41&lt;E38&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-31]</v>
       </c>
       <c r="B41" s="98" t="s">
-        <v>643</v>
+        <v>607</v>
       </c>
       <c r="C41" s="98" t="s">
-        <v>587</v>
+        <v>608</v>
       </c>
       <c r="D41" s="98" t="s">
-        <v>646</v>
+        <v>609</v>
       </c>
       <c r="E41" s="168"/>
       <c r="F41" s="111"/>
@@ -62100,130 +61555,123 @@
       <c r="J41" s="90"/>
     </row>
     <row r="42" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A42" s="54" t="str">
-        <f>IF(OR(B42&lt;&gt;"",D42&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Project Detail-32]</v>
-      </c>
-      <c r="B42" s="98" t="s">
-        <v>641</v>
-      </c>
-      <c r="C42" s="98" t="s">
-        <v>645</v>
-      </c>
-      <c r="D42" s="98" t="s">
-        <v>588</v>
-      </c>
-      <c r="E42" s="168"/>
-      <c r="F42" s="111"/>
-      <c r="G42" s="111"/>
-      <c r="H42" s="169"/>
-      <c r="I42" s="168"/>
+      <c r="A42" s="167"/>
+      <c r="B42" s="167" t="s">
+        <v>542</v>
+      </c>
+      <c r="C42" s="167"/>
+      <c r="D42" s="167"/>
+      <c r="E42" s="167"/>
+      <c r="F42" s="167"/>
+      <c r="G42" s="167"/>
+      <c r="H42" s="167"/>
+      <c r="I42" s="167"/>
       <c r="J42" s="90"/>
     </row>
     <row r="43" spans="1:10" ht="14.25" customHeight="1">
       <c r="A43" s="54" t="str">
-        <f>IF(OR(B43&lt;&gt;"",D43&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" ref="A43" si="3">IF(OR(B43&lt;&gt;"",D43&lt;E40&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-33]</v>
       </c>
       <c r="B43" s="98" t="s">
-        <v>640</v>
+        <v>610</v>
       </c>
       <c r="C43" s="98" t="s">
-        <v>647</v>
+        <v>612</v>
       </c>
       <c r="D43" s="98" t="s">
-        <v>648</v>
+        <v>611</v>
       </c>
       <c r="E43" s="168"/>
       <c r="F43" s="111"/>
       <c r="G43" s="111"/>
-      <c r="H43" s="169"/>
+      <c r="H43" s="206"/>
       <c r="I43" s="168"/>
       <c r="J43" s="90"/>
     </row>
     <row r="44" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A44" s="54" t="str">
-        <f>IF(OR(B44&lt;&gt;"",D44&lt;E41&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Project Detail-34]</v>
-      </c>
-      <c r="B44" s="98" t="s">
-        <v>649</v>
-      </c>
-      <c r="C44" s="98" t="s">
-        <v>650</v>
-      </c>
-      <c r="D44" s="98" t="s">
-        <v>651</v>
-      </c>
-      <c r="E44" s="168"/>
-      <c r="F44" s="111"/>
-      <c r="G44" s="111"/>
-      <c r="H44" s="169"/>
-      <c r="I44" s="168"/>
+      <c r="A44" s="167"/>
+      <c r="B44" s="167" t="s">
+        <v>1155</v>
+      </c>
+      <c r="C44" s="167"/>
+      <c r="D44" s="167"/>
+      <c r="E44" s="167"/>
+      <c r="F44" s="167"/>
+      <c r="G44" s="167"/>
+      <c r="H44" s="167"/>
+      <c r="I44" s="167"/>
       <c r="J44" s="90"/>
     </row>
     <row r="45" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A45" s="167"/>
-      <c r="B45" s="167" t="s">
-        <v>581</v>
-      </c>
-      <c r="C45" s="167"/>
-      <c r="D45" s="167"/>
-      <c r="E45" s="167"/>
-      <c r="F45" s="167"/>
-      <c r="G45" s="167"/>
-      <c r="H45" s="167"/>
-      <c r="I45" s="167"/>
+      <c r="A45" s="97" t="str">
+        <f t="shared" ref="A45" si="4">IF(OR(B45&lt;&gt;"",D45&lt;E44&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <v>[Project Detail-35]</v>
+      </c>
+      <c r="B45" s="98" t="s">
+        <v>1156</v>
+      </c>
+      <c r="C45" s="177" t="s">
+        <v>1158</v>
+      </c>
+      <c r="D45" s="177" t="s">
+        <v>1157</v>
+      </c>
+      <c r="E45" s="168"/>
+      <c r="F45" s="111"/>
+      <c r="G45" s="111"/>
+      <c r="H45" s="169"/>
+      <c r="I45" s="168"/>
       <c r="J45" s="90"/>
     </row>
     <row r="46" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A46" s="54" t="str">
-        <f t="shared" ref="A46" si="3">IF(OR(B46&lt;&gt;"",D46&lt;E43&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
-        <v>[Project Detail-36]</v>
-      </c>
-      <c r="B46" s="98" t="s">
-        <v>652</v>
-      </c>
-      <c r="C46" s="98" t="s">
-        <v>654</v>
-      </c>
-      <c r="D46" s="98" t="s">
-        <v>653</v>
-      </c>
-      <c r="E46" s="168"/>
-      <c r="F46" s="111"/>
-      <c r="G46" s="111"/>
-      <c r="H46" s="206"/>
-      <c r="I46" s="168"/>
+      <c r="A46" s="167"/>
+      <c r="B46" s="167" t="s">
+        <v>543</v>
+      </c>
+      <c r="C46" s="167"/>
+      <c r="D46" s="167"/>
+      <c r="E46" s="167"/>
+      <c r="F46" s="167"/>
+      <c r="G46" s="167"/>
+      <c r="H46" s="167"/>
+      <c r="I46" s="167"/>
       <c r="J46" s="90"/>
     </row>
     <row r="47" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A47" s="167"/>
-      <c r="B47" s="167" t="s">
-        <v>1197</v>
-      </c>
-      <c r="C47" s="167"/>
-      <c r="D47" s="167"/>
-      <c r="E47" s="167"/>
-      <c r="F47" s="167"/>
-      <c r="G47" s="167"/>
-      <c r="H47" s="167"/>
-      <c r="I47" s="167"/>
+      <c r="A47" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>[Project Detail-37]</v>
+      </c>
+      <c r="B47" s="98" t="s">
+        <v>615</v>
+      </c>
+      <c r="C47" s="177" t="s">
+        <v>613</v>
+      </c>
+      <c r="D47" s="177" t="s">
+        <v>616</v>
+      </c>
+      <c r="E47" s="168"/>
+      <c r="F47" s="111"/>
+      <c r="G47" s="111"/>
+      <c r="H47" s="169"/>
+      <c r="I47" s="168"/>
       <c r="J47" s="90"/>
     </row>
     <row r="48" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A48" s="97" t="str">
-        <f t="shared" ref="A48" si="4">IF(OR(B48&lt;&gt;"",D48&lt;E47&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+      <c r="A48" s="54" t="str">
+        <f t="shared" si="0"/>
         <v>[Project Detail-38]</v>
       </c>
       <c r="B48" s="98" t="s">
-        <v>1198</v>
+        <v>614</v>
       </c>
       <c r="C48" s="177" t="s">
-        <v>1200</v>
+        <v>613</v>
       </c>
       <c r="D48" s="177" t="s">
-        <v>1199</v>
+        <v>617</v>
       </c>
       <c r="E48" s="168"/>
       <c r="F48" s="111"/>
@@ -62233,17 +61681,24 @@
       <c r="J48" s="90"/>
     </row>
     <row r="49" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A49" s="167"/>
-      <c r="B49" s="167" t="s">
-        <v>582</v>
-      </c>
-      <c r="C49" s="167"/>
-      <c r="D49" s="167"/>
-      <c r="E49" s="167"/>
-      <c r="F49" s="167"/>
-      <c r="G49" s="167"/>
-      <c r="H49" s="167"/>
-      <c r="I49" s="167"/>
+      <c r="A49" s="54" t="str">
+        <f t="shared" si="0"/>
+        <v>[Project Detail-39]</v>
+      </c>
+      <c r="B49" s="98" t="s">
+        <v>618</v>
+      </c>
+      <c r="C49" s="177" t="s">
+        <v>619</v>
+      </c>
+      <c r="D49" s="177" t="s">
+        <v>620</v>
+      </c>
+      <c r="E49" s="168"/>
+      <c r="F49" s="111"/>
+      <c r="G49" s="111"/>
+      <c r="H49" s="169"/>
+      <c r="I49" s="168"/>
       <c r="J49" s="90"/>
     </row>
     <row r="50" spans="1:10" ht="14.25" customHeight="1">
@@ -62252,13 +61707,13 @@
         <v>[Project Detail-40]</v>
       </c>
       <c r="B50" s="98" t="s">
-        <v>657</v>
+        <v>621</v>
       </c>
       <c r="C50" s="177" t="s">
-        <v>655</v>
+        <v>619</v>
       </c>
       <c r="D50" s="177" t="s">
-        <v>658</v>
+        <v>622</v>
       </c>
       <c r="E50" s="168"/>
       <c r="F50" s="111"/>
@@ -62273,13 +61728,13 @@
         <v>[Project Detail-41]</v>
       </c>
       <c r="B51" s="98" t="s">
-        <v>656</v>
+        <v>664</v>
       </c>
       <c r="C51" s="177" t="s">
-        <v>655</v>
+        <v>665</v>
       </c>
       <c r="D51" s="177" t="s">
-        <v>659</v>
+        <v>663</v>
       </c>
       <c r="E51" s="168"/>
       <c r="F51" s="111"/>
@@ -62294,13 +61749,13 @@
         <v>[Project Detail-42]</v>
       </c>
       <c r="B52" s="98" t="s">
-        <v>660</v>
+        <v>623</v>
       </c>
       <c r="C52" s="177" t="s">
-        <v>661</v>
+        <v>625</v>
       </c>
       <c r="D52" s="177" t="s">
-        <v>662</v>
+        <v>626</v>
       </c>
       <c r="E52" s="168"/>
       <c r="F52" s="111"/>
@@ -62314,14 +61769,14 @@
         <f t="shared" si="0"/>
         <v>[Project Detail-43]</v>
       </c>
-      <c r="B53" s="98" t="s">
-        <v>663</v>
-      </c>
-      <c r="C53" s="177" t="s">
-        <v>661</v>
-      </c>
-      <c r="D53" s="177" t="s">
-        <v>664</v>
+      <c r="B53" s="111" t="s">
+        <v>636</v>
+      </c>
+      <c r="C53" s="165" t="s">
+        <v>627</v>
+      </c>
+      <c r="D53" s="98" t="s">
+        <v>628</v>
       </c>
       <c r="E53" s="168"/>
       <c r="F53" s="111"/>
@@ -62335,14 +61790,14 @@
         <f t="shared" si="0"/>
         <v>[Project Detail-44]</v>
       </c>
-      <c r="B54" s="98" t="s">
-        <v>706</v>
+      <c r="B54" s="161" t="s">
+        <v>637</v>
       </c>
       <c r="C54" s="177" t="s">
-        <v>707</v>
+        <v>629</v>
       </c>
       <c r="D54" s="177" t="s">
-        <v>705</v>
+        <v>630</v>
       </c>
       <c r="E54" s="168"/>
       <c r="F54" s="111"/>
@@ -62352,39 +61807,32 @@
       <c r="J54" s="90"/>
     </row>
     <row r="55" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A55" s="54" t="str">
-        <f t="shared" si="0"/>
-        <v>[Project Detail-45]</v>
-      </c>
-      <c r="B55" s="98" t="s">
-        <v>665</v>
-      </c>
-      <c r="C55" s="177" t="s">
-        <v>667</v>
-      </c>
-      <c r="D55" s="177" t="s">
-        <v>668</v>
-      </c>
-      <c r="E55" s="168"/>
-      <c r="F55" s="111"/>
-      <c r="G55" s="111"/>
-      <c r="H55" s="169"/>
-      <c r="I55" s="168"/>
+      <c r="A55" s="167"/>
+      <c r="B55" s="167" t="s">
+        <v>624</v>
+      </c>
+      <c r="C55" s="167"/>
+      <c r="D55" s="167"/>
+      <c r="E55" s="167"/>
+      <c r="F55" s="167"/>
+      <c r="G55" s="167"/>
+      <c r="H55" s="167"/>
+      <c r="I55" s="167"/>
       <c r="J55" s="90"/>
     </row>
     <row r="56" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A56" s="54" t="str">
+      <c r="A56" s="97" t="str">
         <f t="shared" si="0"/>
         <v>[Project Detail-46]</v>
       </c>
-      <c r="B56" s="111" t="s">
-        <v>678</v>
-      </c>
-      <c r="C56" s="165" t="s">
-        <v>669</v>
-      </c>
-      <c r="D56" s="98" t="s">
-        <v>670</v>
+      <c r="B56" s="98" t="s">
+        <v>631</v>
+      </c>
+      <c r="C56" s="177" t="s">
+        <v>633</v>
+      </c>
+      <c r="D56" s="177" t="s">
+        <v>620</v>
       </c>
       <c r="E56" s="168"/>
       <c r="F56" s="111"/>
@@ -62394,18 +61842,18 @@
       <c r="J56" s="90"/>
     </row>
     <row r="57" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A57" s="54" t="str">
-        <f t="shared" si="0"/>
+      <c r="A57" s="97" t="str">
+        <f t="shared" ref="A57:A60" si="5">IF(OR(B57&lt;&gt;"",D57&lt;E56&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
         <v>[Project Detail-47]</v>
       </c>
-      <c r="B57" s="161" t="s">
-        <v>679</v>
+      <c r="B57" s="98" t="s">
+        <v>632</v>
       </c>
       <c r="C57" s="177" t="s">
-        <v>671</v>
+        <v>633</v>
       </c>
       <c r="D57" s="177" t="s">
-        <v>672</v>
+        <v>634</v>
       </c>
       <c r="E57" s="168"/>
       <c r="F57" s="111"/>
@@ -62415,129 +61863,73 @@
       <c r="J57" s="90"/>
     </row>
     <row r="58" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A58" s="167"/>
-      <c r="B58" s="167" t="s">
-        <v>666</v>
-      </c>
-      <c r="C58" s="167"/>
-      <c r="D58" s="167"/>
-      <c r="E58" s="167"/>
-      <c r="F58" s="167"/>
-      <c r="G58" s="167"/>
-      <c r="H58" s="167"/>
-      <c r="I58" s="167"/>
+      <c r="A58" s="97" t="str">
+        <f t="shared" si="5"/>
+        <v>[Project Detail-48]</v>
+      </c>
+      <c r="B58" s="98" t="s">
+        <v>1185</v>
+      </c>
+      <c r="C58" s="177" t="s">
+        <v>639</v>
+      </c>
+      <c r="D58" s="177" t="s">
+        <v>644</v>
+      </c>
+      <c r="E58" s="168"/>
+      <c r="F58" s="111"/>
+      <c r="G58" s="111"/>
+      <c r="H58" s="206"/>
+      <c r="I58" s="168"/>
       <c r="J58" s="90"/>
     </row>
     <row r="59" spans="1:10" ht="14.25" customHeight="1">
       <c r="A59" s="97" t="str">
-        <f t="shared" si="0"/>
+        <f t="shared" si="5"/>
         <v>[Project Detail-49]</v>
       </c>
       <c r="B59" s="98" t="s">
-        <v>673</v>
-      </c>
-      <c r="C59" s="177" t="s">
-        <v>675</v>
-      </c>
-      <c r="D59" s="177" t="s">
-        <v>662</v>
+        <v>635</v>
+      </c>
+      <c r="C59" s="98" t="s">
+        <v>640</v>
+      </c>
+      <c r="D59" s="98" t="s">
+        <v>642</v>
       </c>
       <c r="E59" s="168"/>
       <c r="F59" s="111"/>
       <c r="G59" s="111"/>
-      <c r="H59" s="169"/>
+      <c r="H59" s="206"/>
       <c r="I59" s="168"/>
       <c r="J59" s="90"/>
     </row>
     <row r="60" spans="1:10" ht="14.25" customHeight="1">
       <c r="A60" s="97" t="str">
-        <f t="shared" ref="A60:A63" si="5">IF(OR(B60&lt;&gt;"",D60&lt;E59&gt;""),"["&amp;TEXT($B$2,"##")&amp;"-"&amp;TEXT(ROW()-10,"##")&amp;"]","")</f>
+        <f t="shared" si="5"/>
         <v>[Project Detail-50]</v>
       </c>
       <c r="B60" s="98" t="s">
-        <v>674</v>
+        <v>638</v>
       </c>
       <c r="C60" s="177" t="s">
-        <v>675</v>
+        <v>641</v>
       </c>
       <c r="D60" s="177" t="s">
-        <v>676</v>
+        <v>643</v>
       </c>
       <c r="E60" s="168"/>
       <c r="F60" s="111"/>
       <c r="G60" s="111"/>
-      <c r="H60" s="169"/>
+      <c r="H60" s="206"/>
       <c r="I60" s="168"/>
       <c r="J60" s="90"/>
     </row>
-    <row r="61" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A61" s="97" t="str">
-        <f t="shared" si="5"/>
-        <v>[Project Detail-51]</v>
-      </c>
-      <c r="B61" s="98" t="s">
-        <v>1227</v>
-      </c>
-      <c r="C61" s="177" t="s">
-        <v>681</v>
-      </c>
-      <c r="D61" s="177" t="s">
-        <v>686</v>
-      </c>
-      <c r="E61" s="168"/>
-      <c r="F61" s="111"/>
-      <c r="G61" s="111"/>
-      <c r="H61" s="206"/>
-      <c r="I61" s="168"/>
+    <row r="61" spans="1:10">
       <c r="J61" s="90"/>
     </row>
-    <row r="62" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A62" s="97" t="str">
-        <f t="shared" si="5"/>
-        <v>[Project Detail-52]</v>
-      </c>
-      <c r="B62" s="98" t="s">
-        <v>677</v>
-      </c>
-      <c r="C62" s="98" t="s">
-        <v>682</v>
-      </c>
-      <c r="D62" s="98" t="s">
-        <v>684</v>
-      </c>
-      <c r="E62" s="168"/>
-      <c r="F62" s="111"/>
-      <c r="G62" s="111"/>
-      <c r="H62" s="206"/>
-      <c r="I62" s="168"/>
+    <row r="62" spans="1:10">
       <c r="J62" s="90"/>
-    </row>
-    <row r="63" spans="1:10" ht="14.25" customHeight="1">
-      <c r="A63" s="97" t="str">
-        <f t="shared" si="5"/>
-        <v>[Project Detail-53]</v>
-      </c>
-      <c r="B63" s="98" t="s">
-        <v>680</v>
-      </c>
-      <c r="C63" s="177" t="s">
-        <v>683</v>
-      </c>
-      <c r="D63" s="177" t="s">
-        <v>685</v>
-      </c>
-      <c r="E63" s="168"/>
-      <c r="F63" s="111"/>
-      <c r="G63" s="111"/>
-      <c r="H63" s="206"/>
-      <c r="I63" s="168"/>
-      <c r="J63" s="90"/>
-    </row>
-    <row r="64" spans="1:10">
-      <c r="J64" s="90"/>
-    </row>
-    <row r="65" spans="10:10">
-      <c r="J65" s="90"/>
     </row>
   </sheetData>
   <mergeCells count="5">
@@ -62548,7 +61940,7 @@
     <mergeCell ref="E6:G6"/>
   </mergeCells>
   <dataValidations count="1">
-    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F59:G63 F48:G48 F46:G46 F18:G19 F21:G22 F37:G38 F24:G35 F12:G16 F40:G44 F50:G57">
+    <dataValidation type="list" allowBlank="1" showErrorMessage="1" sqref="F56:G60 F45:G45 F43:G43 F18:G19 F21:G22 F24:G35 F12:G16 F37:G41 F47:G54">
       <formula1>$J$2:$J$6</formula1>
     </dataValidation>
   </dataValidations>
